--- a/local_data/shock_list.xlsx
+++ b/local_data/shock_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,8 +13,9 @@
     <sheet name="GK15" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Jaro21" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="MAR21" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="AD22" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="BS22" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="BRW21" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="AD22" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="BS22" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="697">
   <si>
     <t xml:space="preserve">MP SHOCK LIST</t>
   </si>
@@ -1598,6 +1599,516 @@
   </si>
   <si>
     <t xml:space="preserve">MM_IV5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRW_monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021m12</t>
   </si>
   <si>
     <t xml:space="preserve">Shock</t>
@@ -1623,6 +2134,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1644,11 +2156,13 @@
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1754,16 +2268,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="A1:B337 E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="79.8"/>
@@ -1952,10 +2466,10 @@
   <dimension ref="A1:B469"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="1" sqref="A1:B337 D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -5712,7 +6226,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5728,10 +6242,10 @@
   <dimension ref="A1:D285"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:B337 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -9698,7 +10212,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9714,10 +10228,10 @@
   <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -15288,7 +15802,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -15304,10 +15818,10 @@
   <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:B337 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -18518,7 +19032,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -18531,2530 +19045,2714 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B337"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>524</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
-        <v>30225</v>
+      <c r="A2" s="0" t="s">
+        <v>343</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.185835714870881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>30256</v>
+      <c r="A3" s="0" t="s">
+        <v>344</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.039496250696552</v>
+        <v>0.1040085</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>30286</v>
+      <c r="A4" s="0" t="s">
+        <v>345</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.189562036505108</v>
+        <v>-0.0243072</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>30317</v>
+      <c r="A5" s="0" t="s">
+        <v>346</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>30348</v>
+      <c r="A6" s="0" t="s">
+        <v>347</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.0748639897980383</v>
+        <v>-0.0112555</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>30376</v>
+      <c r="A7" s="0" t="s">
+        <v>348</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.0669444007024849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>30407</v>
+      <c r="A8" s="0" t="s">
+        <v>349</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>-0.0157386</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>30437</v>
+      <c r="A9" s="0" t="s">
+        <v>350</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.0827213822688004</v>
+        <v>0.0282235</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>30468</v>
+      <c r="A10" s="0" t="s">
+        <v>351</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>-0.0370413</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>30498</v>
+      <c r="A11" s="0" t="s">
+        <v>352</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.11468762447642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>30529</v>
+      <c r="A12" s="0" t="s">
+        <v>353</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-0.141329884749569</v>
+        <v>0.0440352</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
-        <v>30560</v>
+      <c r="A13" s="0" t="s">
+        <v>354</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>-0.0467522</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <v>30590</v>
+      <c r="A14" s="0" t="s">
+        <v>355</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-0.0221622164146082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
-        <v>30621</v>
+      <c r="A15" s="0" t="s">
+        <v>356</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-0.095372682939439</v>
+        <v>0.0144535</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
-        <v>30651</v>
+      <c r="A16" s="0" t="s">
+        <v>357</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.0318634302358576</v>
+        <v>0.0271484</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
-        <v>30682</v>
+      <c r="A17" s="0" t="s">
+        <v>358</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>-0.0589846670905007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
-        <v>30713</v>
+      <c r="A18" s="0" t="s">
+        <v>359</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>-0.0280065</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
-        <v>30742</v>
+      <c r="A19" s="0" t="s">
+        <v>360</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.0273716588133872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
-        <v>30773</v>
+      <c r="A20" s="0" t="s">
+        <v>361</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>-0.08271</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
-        <v>30803</v>
+      <c r="A21" s="0" t="s">
+        <v>362</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-0.0509699869047861</v>
+        <v>0.015468</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
-        <v>30834</v>
+      <c r="A22" s="0" t="s">
+        <v>363</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>0.0236943</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
-        <v>30864</v>
+      <c r="A23" s="0" t="s">
+        <v>364</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.265595453342731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>30895</v>
+      <c r="A24" s="0" t="s">
+        <v>365</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-0.0147164647578816</v>
+        <v>0.0316455</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
-        <v>30926</v>
+      <c r="A25" s="0" t="s">
+        <v>366</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>-0.0249604</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
-        <v>30956</v>
+      <c r="A26" s="0" t="s">
+        <v>367</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-0.217685950901041</v>
+        <v>-0.0450536</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
-        <v>30987</v>
+      <c r="A27" s="0" t="s">
+        <v>368</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-0.518579766575383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
-        <v>31017</v>
+      <c r="A28" s="0" t="s">
+        <v>369</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>-0.290127891439627</v>
+        <v>-0.0052234</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
-        <v>31048</v>
+      <c r="A29" s="0" t="s">
+        <v>370</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
-        <v>31079</v>
+      <c r="A30" s="0" t="s">
+        <v>371</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>-0.0559513779245576</v>
+        <v>0.0005826</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
-        <v>31107</v>
+      <c r="A31" s="0" t="s">
+        <v>372</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.0918407953021993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
-        <v>31138</v>
+      <c r="A32" s="0" t="s">
+        <v>373</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>-0.0140297</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
-        <v>31168</v>
+      <c r="A33" s="0" t="s">
+        <v>374</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>-0.179204533615814</v>
+        <v>-0.0058412</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
-        <v>31199</v>
+      <c r="A34" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>-0.0255782</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
-        <v>31229</v>
+      <c r="A35" s="0" t="s">
+        <v>376</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.110046847614045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
-        <v>31260</v>
+      <c r="A36" s="0" t="s">
+        <v>377</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.0899802646056165</v>
+        <v>-0.0037434</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
-        <v>31291</v>
+      <c r="A37" s="0" t="s">
+        <v>378</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>0.0121676</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
-        <v>31321</v>
+      <c r="A38" s="0" t="s">
+        <v>379</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.082921107130155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
-        <v>31352</v>
+      <c r="A39" s="0" t="s">
+        <v>380</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>-0.00325606265057236</v>
+        <v>0.001343</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
-        <v>31382</v>
+      <c r="A40" s="0" t="s">
+        <v>381</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>-0.0811809097679886</v>
+        <v>0.0321328</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
-        <v>31413</v>
+      <c r="A41" s="0" t="s">
+        <v>382</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
-        <v>31444</v>
+      <c r="A42" s="0" t="s">
+        <v>383</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>-0.00601300911374419</v>
+        <v>-0.0323122</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
-        <v>31472</v>
+      <c r="A43" s="0" t="s">
+        <v>384</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
-        <v>31503</v>
+      <c r="A44" s="0" t="s">
+        <v>385</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.0221649575632253</v>
+        <v>0.0049432</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
-        <v>31533</v>
+      <c r="A45" s="0" t="s">
+        <v>386</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.0691971800750134</v>
+        <v>0.0242359</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
-        <v>31564</v>
+      <c r="A46" s="0" t="s">
+        <v>387</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>-0.0197826</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
-        <v>31594</v>
+      <c r="A47" s="0" t="s">
+        <v>388</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>-0.257436520119126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
-        <v>31625</v>
+      <c r="A48" s="0" t="s">
+        <v>389</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>-0.187186048131356</v>
+        <v>0.001291</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
-        <v>31656</v>
+      <c r="A49" s="0" t="s">
+        <v>390</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.0637402707569</v>
+        <v>0.0023375</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
-        <v>31686</v>
+      <c r="A50" s="0" t="s">
+        <v>391</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
-        <v>31717</v>
+      <c r="A51" s="0" t="s">
+        <v>392</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.0846444546344814</v>
+        <v>-0.0189084</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
-        <v>31747</v>
+      <c r="A52" s="0" t="s">
+        <v>393</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.0407542915965605</v>
+        <v>-0.0146824</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
-        <v>31778</v>
+      <c r="A53" s="0" t="s">
+        <v>394</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="n">
-        <v>31809</v>
+      <c r="A54" s="0" t="s">
+        <v>395</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>-0.0339247130550994</v>
+        <v>-0.0118588</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="n">
-        <v>31837</v>
+      <c r="A55" s="0" t="s">
+        <v>396</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.136779074155489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="n">
-        <v>31868</v>
+      <c r="A56" s="0" t="s">
+        <v>397</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0</v>
+        <v>-0.0298002</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="n">
-        <v>31898</v>
+      <c r="A57" s="0" t="s">
+        <v>398</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.132941288213469</v>
+        <v>0.0067876</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
-        <v>31929</v>
+      <c r="A58" s="0" t="s">
+        <v>399</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0</v>
+        <v>0.0411887</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="n">
-        <v>31959</v>
+      <c r="A59" s="0" t="s">
+        <v>400</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>-0.0446128691454598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="n">
-        <v>31990</v>
+      <c r="A60" s="0" t="s">
+        <v>401</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>-0.0470487163437809</v>
+        <v>-0.0215621</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="n">
-        <v>32021</v>
+      <c r="A61" s="0" t="s">
+        <v>402</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>-0.111693661419808</v>
+        <v>-0.0172137</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
-        <v>32051</v>
+      <c r="A62" s="0" t="s">
+        <v>403</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
-        <v>32082</v>
+      <c r="A63" s="0" t="s">
+        <v>404</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>-0.132498935859068</v>
+        <v>0.0331328</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="n">
-        <v>32112</v>
+      <c r="A64" s="0" t="s">
+        <v>405</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.0172997780945644</v>
+        <v>-0.0152419</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="n">
-        <v>32143</v>
+      <c r="A65" s="0" t="s">
+        <v>406</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="n">
-        <v>32174</v>
+      <c r="A66" s="0" t="s">
+        <v>407</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>-0.0933217651536453</v>
+        <v>0.0500476</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="n">
-        <v>32203</v>
+      <c r="A67" s="0" t="s">
+        <v>408</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.0892309352810463</v>
+        <v>-0.0534662</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="n">
-        <v>32234</v>
+      <c r="A68" s="0" t="s">
+        <v>409</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="n">
-        <v>32264</v>
+      <c r="A69" s="0" t="s">
+        <v>410</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.0742021291751473</v>
+        <v>-0.0209104</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="n">
-        <v>32295</v>
+      <c r="A70" s="0" t="s">
+        <v>411</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.155969690130614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="n">
-        <v>32325</v>
+      <c r="A71" s="0" t="s">
+        <v>412</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0</v>
+        <v>0.0124707</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="n">
-        <v>32356</v>
+      <c r="A72" s="0" t="s">
+        <v>413</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>-0.0611477942454699</v>
+        <v>0.0035877</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="n">
-        <v>32387</v>
+      <c r="A73" s="0" t="s">
+        <v>414</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.0195179670016894</v>
+        <v>-0.0075649</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="n">
-        <v>32417</v>
+      <c r="A74" s="0" t="s">
+        <v>415</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="n">
-        <v>32448</v>
+      <c r="A75" s="0" t="s">
+        <v>416</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>-0.020889306157919</v>
+        <v>0.0848806</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="n">
-        <v>32478</v>
+      <c r="A76" s="0" t="s">
+        <v>417</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.354972702686147</v>
+        <v>0.0007672</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="n">
-        <v>32509</v>
+      <c r="A77" s="0" t="s">
+        <v>418</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="n">
-        <v>32540</v>
+      <c r="A78" s="0" t="s">
+        <v>419</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.120179357979217</v>
+        <v>0.0333197</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="n">
-        <v>32568</v>
+      <c r="A79" s="0" t="s">
+        <v>420</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.0298104597376752</v>
+        <v>-0.0261072</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6" t="n">
-        <v>32599</v>
+      <c r="A80" s="0" t="s">
+        <v>421</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6" t="n">
-        <v>32629</v>
+      <c r="A81" s="0" t="s">
+        <v>422</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.0340733483848794</v>
+        <v>-0.0208286</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6" t="n">
-        <v>32660</v>
+      <c r="A82" s="0" t="s">
+        <v>423</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6" t="n">
-        <v>32690</v>
+      <c r="A83" s="0" t="s">
+        <v>424</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>-0.127586668017806</v>
+        <v>0.008728</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6" t="n">
-        <v>32721</v>
+      <c r="A84" s="0" t="s">
+        <v>425</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.0205258661371312</v>
+        <v>0.0122376</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6" t="n">
-        <v>32752</v>
+      <c r="A85" s="0" t="s">
+        <v>426</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0</v>
+        <v>-0.0045354</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="n">
-        <v>32782</v>
+      <c r="A86" s="0" t="s">
+        <v>427</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.00932585410524548</v>
+        <v>-0.0328029</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6" t="n">
-        <v>32813</v>
+      <c r="A87" s="0" t="s">
+        <v>428</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.0625311019882992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="n">
-        <v>32843</v>
+      <c r="A88" s="0" t="s">
+        <v>429</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>-0.121449488059005</v>
+        <v>-0.0334251</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6" t="n">
-        <v>32874</v>
+      <c r="A89" s="0" t="s">
+        <v>430</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6" t="n">
-        <v>32905</v>
+      <c r="A90" s="0" t="s">
+        <v>431</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.0598289180194269</v>
+        <v>-0.0222625</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6" t="n">
-        <v>32933</v>
+      <c r="A91" s="0" t="s">
+        <v>432</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.0252254098109448</v>
+        <v>0.0931686</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6" t="n">
-        <v>32964</v>
+      <c r="A92" s="0" t="s">
+        <v>433</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="n">
-        <v>32994</v>
+      <c r="A93" s="0" t="s">
+        <v>434</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.00721575670030198</v>
+        <v>-0.0231558</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="n">
-        <v>33025</v>
+      <c r="A94" s="0" t="s">
+        <v>435</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6" t="n">
-        <v>33055</v>
+      <c r="A95" s="0" t="s">
+        <v>436</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>-0.0486580484281949</v>
+        <v>0.0006712</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="n">
-        <v>33086</v>
+      <c r="A96" s="0" t="s">
+        <v>437</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0.0966164504521241</v>
+        <v>-0.0492702</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="n">
-        <v>33117</v>
+      <c r="A97" s="0" t="s">
+        <v>438</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>-0.0422499</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6" t="n">
-        <v>33147</v>
+      <c r="A98" s="0" t="s">
+        <v>439</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>-0.057959208687868</v>
+        <v>0.0043643</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6" t="n">
-        <v>33178</v>
+      <c r="A99" s="0" t="s">
+        <v>440</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.0681007664619445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="n">
-        <v>33208</v>
+      <c r="A100" s="0" t="s">
+        <v>441</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0.0184068752387195</v>
+        <v>-0.0175431</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="n">
-        <v>33239</v>
+      <c r="A101" s="0" t="s">
+        <v>442</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="n">
-        <v>33270</v>
+      <c r="A102" s="0" t="s">
+        <v>443</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>-0.15942191589472</v>
+        <v>-0.037384</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6" t="n">
-        <v>33298</v>
+      <c r="A103" s="0" t="s">
+        <v>444</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0.139397160626449</v>
+        <v>-0.0735798</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="n">
-        <v>33329</v>
+      <c r="A104" s="0" t="s">
+        <v>445</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="n">
-        <v>33359</v>
+      <c r="A105" s="0" t="s">
+        <v>446</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0.0868418100450984</v>
+        <v>-0.0172808</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6" t="n">
-        <v>33390</v>
+      <c r="A106" s="0" t="s">
+        <v>447</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0</v>
+        <v>0.0156523</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="n">
-        <v>33420</v>
+      <c r="A107" s="0" t="s">
+        <v>448</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>0.0468300511260047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6" t="n">
-        <v>33451</v>
+      <c r="A108" s="0" t="s">
+        <v>449</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0.0549890128894313</v>
+        <v>0.0039296</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6" t="n">
-        <v>33482</v>
+      <c r="A109" s="0" t="s">
+        <v>450</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0</v>
+        <v>0.0324468</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6" t="n">
-        <v>33512</v>
+      <c r="A110" s="0" t="s">
+        <v>451</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>0.0873411386297489</v>
+        <v>0.0217713</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6" t="n">
-        <v>33543</v>
+      <c r="A111" s="0" t="s">
+        <v>452</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>-0.256219078747117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6" t="n">
-        <v>33573</v>
+      <c r="A112" s="0" t="s">
+        <v>453</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0.0165414527992062</v>
+        <v>0.0225743</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="n">
-        <v>33604</v>
+      <c r="A113" s="0" t="s">
+        <v>454</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6" t="n">
-        <v>33635</v>
+      <c r="A114" s="0" t="s">
+        <v>455</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0.10722353400252</v>
+        <v>-0.0677717</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6" t="n">
-        <v>33664</v>
+      <c r="A115" s="0" t="s">
+        <v>456</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0.00467463536124791</v>
+        <v>0.032338</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6" t="n">
-        <v>33695</v>
+      <c r="A116" s="0" t="s">
+        <v>457</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6" t="n">
-        <v>33725</v>
+      <c r="A117" s="0" t="s">
+        <v>458</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>-0.0011261417378934</v>
+        <v>-0.032814</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6" t="n">
-        <v>33756</v>
+      <c r="A118" s="0" t="s">
+        <v>459</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0</v>
+        <v>-0.0218664</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6" t="n">
-        <v>33786</v>
+      <c r="A119" s="0" t="s">
+        <v>460</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>-0.0550754712541896</v>
+        <v>-0.0478471</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="6" t="n">
-        <v>33817</v>
+      <c r="A120" s="0" t="s">
+        <v>461</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>-0.0697902486621894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="6" t="n">
-        <v>33848</v>
+      <c r="A121" s="0" t="s">
+        <v>462</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0</v>
+        <v>0.0105613</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6" t="n">
-        <v>33878</v>
+      <c r="A122" s="0" t="s">
+        <v>463</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>-0.0177645037457449</v>
+        <v>0.0579165</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6" t="n">
-        <v>33909</v>
+      <c r="A123" s="0" t="s">
+        <v>464</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>0.0381330536660132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6" t="n">
-        <v>33939</v>
+      <c r="A124" s="0" t="s">
+        <v>465</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>-0.0710823000380575</v>
+        <v>-0.0110661</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6" t="n">
-        <v>33970</v>
+      <c r="A125" s="0" t="s">
+        <v>466</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6" t="n">
-        <v>34001</v>
+      <c r="A126" s="0" t="s">
+        <v>467</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>-0.0530293876871202</v>
+        <v>-0.0179692</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6" t="n">
-        <v>34029</v>
+      <c r="A127" s="0" t="s">
+        <v>468</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>-0.0108148265930124</v>
+        <v>-0.0347605</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6" t="n">
-        <v>34060</v>
+      <c r="A128" s="0" t="s">
+        <v>469</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6" t="n">
-        <v>34090</v>
+      <c r="A129" s="0" t="s">
+        <v>470</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>0.128329849003832</v>
+        <v>0.0534485</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6" t="n">
-        <v>34121</v>
+      <c r="A130" s="0" t="s">
+        <v>471</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>0</v>
+        <v>0.0359001</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6" t="n">
-        <v>34151</v>
+      <c r="A131" s="0" t="s">
+        <v>472</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0.00627603698014687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6" t="n">
-        <v>34182</v>
+      <c r="A132" s="0" t="s">
+        <v>473</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>-0.0467225616260708</v>
+        <v>0.001987</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6" t="n">
-        <v>34213</v>
+      <c r="A133" s="0" t="s">
+        <v>474</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>0.0240124048637317</v>
+        <v>0.0134735</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6" t="n">
-        <v>34243</v>
+      <c r="A134" s="0" t="s">
+        <v>475</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6" t="n">
-        <v>34274</v>
+      <c r="A135" s="0" t="s">
+        <v>476</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>-0.0766186938112925</v>
+        <v>0.0319071</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6" t="n">
-        <v>34304</v>
+      <c r="A136" s="0" t="s">
+        <v>477</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>-0.0954793583382654</v>
+        <v>0.0544299</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6" t="n">
-        <v>34335</v>
+      <c r="A137" s="0" t="s">
+        <v>478</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6" t="n">
-        <v>34366</v>
+      <c r="A138" s="0" t="s">
+        <v>479</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>0.0911789139909259</v>
+        <v>0.0280891</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6" t="n">
-        <v>34394</v>
+      <c r="A139" s="0" t="s">
+        <v>480</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0.114899967159584</v>
+        <v>0.0056777</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="n">
-        <v>34425</v>
+      <c r="A140" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="n">
-        <v>34455</v>
+      <c r="A141" s="0" t="s">
+        <v>482</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>0.277082362829696</v>
+        <v>-0.0009983</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6" t="n">
-        <v>34486</v>
+      <c r="A142" s="0" t="s">
+        <v>483</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>0</v>
+        <v>0.0514363</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6" t="n">
-        <v>34516</v>
+      <c r="A143" s="0" t="s">
+        <v>484</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>-0.0979308705133419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="n">
-        <v>34547</v>
+      <c r="A144" s="0" t="s">
+        <v>485</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>0.270504382814684</v>
+        <v>-0.0115314</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6" t="n">
-        <v>34578</v>
+      <c r="A145" s="0" t="s">
+        <v>486</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>-0.00711860531311048</v>
+        <v>-0.0028168</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6" t="n">
-        <v>34608</v>
+      <c r="A146" s="0" t="s">
+        <v>487</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>0</v>
+        <v>0.0278848</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6" t="n">
-        <v>34639</v>
+      <c r="A147" s="0" t="s">
+        <v>488</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>0.415625952953757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6" t="n">
-        <v>34669</v>
+      <c r="A148" s="0" t="s">
+        <v>489</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>-0.0936295766202917</v>
+        <v>0.0131852</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6" t="n">
-        <v>34700</v>
+      <c r="A149" s="0" t="s">
+        <v>490</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6" t="n">
-        <v>34731</v>
+      <c r="A150" s="0" t="s">
+        <v>491</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>0.264884433406849</v>
+        <v>0.021681</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6" t="n">
-        <v>34759</v>
+      <c r="A151" s="0" t="s">
+        <v>492</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>0.00320640851731601</v>
+        <v>-0.0255367</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6" t="n">
-        <v>34790</v>
+      <c r="A152" s="0" t="s">
+        <v>493</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6" t="n">
-        <v>34820</v>
+      <c r="A153" s="0" t="s">
+        <v>494</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0.034948567513044</v>
+        <v>-0.0303564</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="6" t="n">
-        <v>34851</v>
+      <c r="A154" s="0" t="s">
+        <v>495</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>0</v>
+        <v>0.012291</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="6" t="n">
-        <v>34881</v>
+      <c r="A155" s="0" t="s">
+        <v>496</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>-0.0402716787745813</v>
+        <v>-0.0106963</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="6" t="n">
-        <v>34912</v>
+      <c r="A156" s="0" t="s">
+        <v>497</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>-0.0523084885222055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6" t="n">
-        <v>34943</v>
+      <c r="A157" s="0" t="s">
+        <v>498</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>-0.0182856350062532</v>
+        <v>-0.0239048</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6" t="n">
-        <v>34973</v>
+      <c r="A158" s="0" t="s">
+        <v>499</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>0</v>
+        <v>0.0043393</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6" t="n">
-        <v>35004</v>
+      <c r="A159" s="0" t="s">
+        <v>500</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>-0.0111785368667366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6" t="n">
-        <v>35034</v>
+      <c r="A160" s="0" t="s">
+        <v>501</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>-0.180639098213819</v>
+        <v>-0.0576145</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="6" t="n">
-        <v>35065</v>
+      <c r="A161" s="0" t="s">
+        <v>502</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>-0.126835572569262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6" t="n">
-        <v>35096</v>
+      <c r="A162" s="0" t="s">
+        <v>503</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>0</v>
+        <v>0.0172136</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6" t="n">
-        <v>35125</v>
+      <c r="A163" s="0" t="s">
+        <v>504</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>0.00034203180637696</v>
+        <v>0.0295156</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6" t="n">
-        <v>35156</v>
+      <c r="A164" s="0" t="s">
+        <v>505</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6" t="n">
-        <v>35186</v>
+      <c r="A165" s="0" t="s">
+        <v>506</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>-0.0502574011611987</v>
+        <v>0.050005</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6" t="n">
-        <v>35217</v>
+      <c r="A166" s="0" t="s">
+        <v>507</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>0</v>
+        <v>-0.0861769</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6" t="n">
-        <v>35247</v>
+      <c r="A167" s="0" t="s">
+        <v>508</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>-0.0763369304864368</v>
+        <v>0.034648</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6" t="n">
-        <v>35278</v>
+      <c r="A168" s="0" t="s">
+        <v>509</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>-0.0296190176615112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6" t="n">
-        <v>35309</v>
+      <c r="A169" s="0" t="s">
+        <v>510</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>-0.0270695513679444</v>
+        <v>-0.0495056</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="6" t="n">
-        <v>35339</v>
+      <c r="A170" s="0" t="s">
+        <v>526</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>0</v>
+        <v>-0.0302899</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6" t="n">
-        <v>35370</v>
+      <c r="A171" s="0" t="s">
+        <v>527</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>-0.0369720690704398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6" t="n">
-        <v>35400</v>
+      <c r="A172" s="0" t="s">
+        <v>528</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>-0.0157375916474102</v>
+        <v>0.1330401</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6" t="n">
-        <v>35431</v>
+      <c r="A173" s="0" t="s">
+        <v>529</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>0</v>
+        <v>-0.0083677</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="6" t="n">
-        <v>35462</v>
+      <c r="A174" s="0" t="s">
+        <v>530</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>-0.0790134452982615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6" t="n">
-        <v>35490</v>
+      <c r="A175" s="0" t="s">
+        <v>531</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>0.100317305302033</v>
+        <v>0.0027869</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="6" t="n">
-        <v>35521</v>
+      <c r="A176" s="0" t="s">
+        <v>532</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="6" t="n">
-        <v>35551</v>
+      <c r="A177" s="0" t="s">
+        <v>533</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>-0.0742105210877581</v>
+        <v>-0.0054576</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="6" t="n">
-        <v>35582</v>
+      <c r="A178" s="0" t="s">
+        <v>534</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>0</v>
+        <v>0.0907424</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="6" t="n">
-        <v>35612</v>
+      <c r="A179" s="0" t="s">
+        <v>535</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>-0.0465940729537456</v>
+        <v>-0.0905795</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="6" t="n">
-        <v>35643</v>
+      <c r="A180" s="0" t="s">
+        <v>536</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>-0.0487327076117208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6" t="n">
-        <v>35674</v>
+      <c r="A181" s="0" t="s">
+        <v>537</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>-0.0994995420534119</v>
+        <v>-0.0402685</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="6" t="n">
-        <v>35704</v>
+      <c r="A182" s="0" t="s">
+        <v>538</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>0</v>
+        <v>-0.0833575</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="6" t="n">
-        <v>35735</v>
+      <c r="A183" s="0" t="s">
+        <v>539</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>-0.0482622575339363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="6" t="n">
-        <v>35765</v>
+      <c r="A184" s="0" t="s">
+        <v>540</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>0.0275880006709347</v>
+        <v>-0.1536563</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="6" t="n">
-        <v>35796</v>
+      <c r="A185" s="0" t="s">
+        <v>541</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>0</v>
+        <v>0.0157337</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="6" t="n">
-        <v>35827</v>
+      <c r="A186" s="0" t="s">
+        <v>542</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>0.0128223277628798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="6" t="n">
-        <v>35855</v>
+      <c r="A187" s="0" t="s">
+        <v>543</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>-0.019120815545547</v>
+        <v>-0.0129882</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="6" t="n">
-        <v>35886</v>
+      <c r="A188" s="0" t="s">
+        <v>544</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="6" t="n">
-        <v>35916</v>
+      <c r="A189" s="0" t="s">
+        <v>545</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>-0.0415238119717485</v>
+        <v>-0.0808944</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="6" t="n">
-        <v>35947</v>
+      <c r="A190" s="0" t="s">
+        <v>546</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>0</v>
+        <v>-0.0447994</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="6" t="n">
-        <v>35977</v>
+      <c r="A191" s="0" t="s">
+        <v>547</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0.00602294157040852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="6" t="n">
-        <v>36008</v>
+      <c r="A192" s="0" t="s">
+        <v>548</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>0.0123595443958948</v>
+        <v>-0.0457681</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="6" t="n">
-        <v>36039</v>
+      <c r="A193" s="0" t="s">
+        <v>549</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>-0.0970693427517162</v>
+        <v>-0.0083857</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="6" t="n">
-        <v>36069</v>
+      <c r="A194" s="0" t="s">
+        <v>550</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0</v>
+        <v>0.0414846</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="6" t="n">
-        <v>36100</v>
+      <c r="A195" s="0" t="s">
+        <v>551</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>-0.078272940502953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="6" t="n">
-        <v>36130</v>
+      <c r="A196" s="0" t="s">
+        <v>552</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>-0.0091028050122599</v>
+        <v>0.001814</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="6" t="n">
-        <v>36161</v>
+      <c r="A197" s="0" t="s">
+        <v>553</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>0</v>
+        <v>0.000636</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="6" t="n">
-        <v>36192</v>
+      <c r="A198" s="0" t="s">
+        <v>554</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>-0.0333795714751769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="6" t="n">
-        <v>36220</v>
+      <c r="A199" s="0" t="s">
+        <v>555</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>-0.0300655024370712</v>
+        <v>-0.0051788</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="6" t="n">
-        <v>36251</v>
+      <c r="A200" s="0" t="s">
+        <v>556</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="6" t="n">
-        <v>36281</v>
+      <c r="A201" s="0" t="s">
+        <v>557</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>-0.0725181667011046</v>
+        <v>-0.0446638</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="6" t="n">
-        <v>36312</v>
+      <c r="A202" s="0" t="s">
+        <v>558</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>0.149630959009209</v>
+        <v>-0.0024641</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="6" t="n">
-        <v>36342</v>
+      <c r="A203" s="0" t="s">
+        <v>559</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="6" t="n">
-        <v>36373</v>
+      <c r="A204" s="0" t="s">
+        <v>560</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>0.18094278935564</v>
+        <v>-0.1878635</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="6" t="n">
-        <v>36404</v>
+      <c r="A205" s="0" t="s">
+        <v>561</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>0</v>
+        <v>-0.0158517</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="6" t="n">
-        <v>36434</v>
+      <c r="A206" s="0" t="s">
+        <v>562</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>-0.102797303649462</v>
+        <v>-0.053418</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="6" t="n">
-        <v>36465</v>
+      <c r="A207" s="0" t="s">
+        <v>563</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>0.174481540376376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="6" t="n">
-        <v>36495</v>
+      <c r="A208" s="0" t="s">
+        <v>564</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>-0.0646982952539365</v>
+        <v>0.0513114</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="6" t="n">
-        <v>36526</v>
+      <c r="A209" s="0" t="s">
+        <v>565</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>0</v>
+        <v>-0.0443628</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="6" t="n">
-        <v>36557</v>
+      <c r="A210" s="0" t="s">
+        <v>566</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>0.105879098416447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="6" t="n">
-        <v>36586</v>
+      <c r="A211" s="0" t="s">
+        <v>567</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>0.0488259712457342</v>
+        <v>-0.0006794</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="6" t="n">
-        <v>36617</v>
+      <c r="A212" s="0" t="s">
+        <v>568</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="6" t="n">
-        <v>36647</v>
+      <c r="A213" s="0" t="s">
+        <v>569</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>0.28998220994618</v>
+        <v>-0.0381751</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="6" t="n">
-        <v>36678</v>
+      <c r="A214" s="0" t="s">
+        <v>570</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>-0.0883218129842056</v>
+        <v>0.1844671</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="6" t="n">
-        <v>36708</v>
+      <c r="A215" s="0" t="s">
+        <v>571</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="6" t="n">
-        <v>36739</v>
+      <c r="A216" s="0" t="s">
+        <v>572</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>-0.0337608278370629</v>
+        <v>-0.0374666</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="6" t="n">
-        <v>36770</v>
+      <c r="A217" s="0" t="s">
+        <v>573</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>0</v>
+        <v>0.0538563</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="6" t="n">
-        <v>36800</v>
+      <c r="A218" s="0" t="s">
+        <v>574</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>-0.0670515509461163</v>
+        <v>-0.0551627</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="6" t="n">
-        <v>36831</v>
+      <c r="A219" s="0" t="s">
+        <v>575</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>0.0355941541851678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="6" t="n">
-        <v>36861</v>
+      <c r="A220" s="0" t="s">
+        <v>576</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>0.113698134706274</v>
+        <v>-0.0289384</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="6" t="n">
-        <v>36892</v>
+      <c r="A221" s="0" t="s">
+        <v>577</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>-0.109603252565945</v>
+        <v>-0.0283433</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="6" t="n">
-        <v>36923</v>
+      <c r="A222" s="0" t="s">
+        <v>578</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="6" t="n">
-        <v>36951</v>
+      <c r="A223" s="0" t="s">
+        <v>579</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>-0.205488504576246</v>
+        <v>0.0361313</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="6" t="n">
-        <v>36982</v>
+      <c r="A224" s="0" t="s">
+        <v>580</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="6" t="n">
-        <v>37012</v>
+      <c r="A225" s="0" t="s">
+        <v>581</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>-0.194291072874983</v>
+        <v>-0.0065623</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="6" t="n">
-        <v>37043</v>
+      <c r="A226" s="0" t="s">
+        <v>582</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>-0.00258890356678101</v>
+        <v>-0.0588987</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="6" t="n">
-        <v>37073</v>
+      <c r="A227" s="0" t="s">
+        <v>583</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>0</v>
+        <v>-0.0289802</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="6" t="n">
-        <v>37104</v>
+      <c r="A228" s="0" t="s">
+        <v>584</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>0.00722725190596923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="6" t="n">
-        <v>37135</v>
+      <c r="A229" s="0" t="s">
+        <v>585</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>0</v>
+        <v>-0.0444885</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="6" t="n">
-        <v>37165</v>
+      <c r="A230" s="0" t="s">
+        <v>586</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>-0.00860135615554752</v>
+        <v>-0.0221064</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="6" t="n">
-        <v>37196</v>
+      <c r="A231" s="0" t="s">
+        <v>587</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>-0.0739528533129893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="6" t="n">
-        <v>37226</v>
+      <c r="A232" s="0" t="s">
+        <v>588</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>0.00788633157376523</v>
+        <v>-0.0334094</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="6" t="n">
-        <v>37257</v>
+      <c r="A233" s="0" t="s">
+        <v>589</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>0.112140549793627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="6" t="n">
-        <v>37288</v>
+      <c r="A234" s="0" t="s">
+        <v>590</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>0</v>
+        <v>0.0312896</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="6" t="n">
-        <v>37316</v>
+      <c r="A235" s="0" t="s">
+        <v>591</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>-0.0517866509380857</v>
+        <v>0.0517667</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="6" t="n">
-        <v>37347</v>
+      <c r="A236" s="0" t="s">
+        <v>592</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>0</v>
+        <v>0.0240371</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="6" t="n">
-        <v>37377</v>
+      <c r="A237" s="0" t="s">
+        <v>593</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>0.00203102878865201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="6" t="n">
-        <v>37408</v>
+      <c r="A238" s="0" t="s">
+        <v>594</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>-0.0255474232565735</v>
+        <v>-0.0500734</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="6" t="n">
-        <v>37438</v>
+      <c r="A239" s="0" t="s">
+        <v>595</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>0</v>
+        <v>-0.0073041</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="6" t="n">
-        <v>37469</v>
+      <c r="A240" s="0" t="s">
+        <v>596</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>0.0563585107407402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="6" t="n">
-        <v>37500</v>
+      <c r="A241" s="0" t="s">
+        <v>597</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>0.0376932662291295</v>
+        <v>-0.005958</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="6" t="n">
-        <v>37530</v>
+      <c r="A242" s="0" t="s">
+        <v>598</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>0</v>
+        <v>0.0113515</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="6" t="n">
-        <v>37561</v>
+      <c r="A243" s="0" t="s">
+        <v>599</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>-0.230951604460519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="6" t="n">
-        <v>37591</v>
+      <c r="A244" s="0" t="s">
+        <v>600</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>0.0657301079970578</v>
+        <v>0.0969798</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="6" t="n">
-        <v>37622</v>
+      <c r="A245" s="0" t="s">
+        <v>601</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>0.0680668040650198</v>
+        <v>-0.0094696</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="6" t="n">
-        <v>37653</v>
+      <c r="A246" s="0" t="s">
+        <v>602</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="6" t="n">
-        <v>37681</v>
+      <c r="A247" s="0" t="s">
+        <v>603</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>0.0629695109268444</v>
+        <v>-0.0170961</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="6" t="n">
-        <v>37712</v>
+      <c r="A248" s="0" t="s">
+        <v>604</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>0</v>
+        <v>-0.0258151</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="6" t="n">
-        <v>37742</v>
+      <c r="A249" s="0" t="s">
+        <v>605</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>0.0583311802477237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="6" t="n">
-        <v>37773</v>
+      <c r="A250" s="0" t="s">
+        <v>606</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>-0.153924830756036</v>
+        <v>0.0146252</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="6" t="n">
-        <v>37803</v>
+      <c r="A251" s="0" t="s">
+        <v>607</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>0</v>
+        <v>0.0715765</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="6" t="n">
-        <v>37834</v>
+      <c r="A252" s="0" t="s">
+        <v>608</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>0.0563677611559543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="6" t="n">
-        <v>37865</v>
+      <c r="A253" s="0" t="s">
+        <v>609</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>-0.0567782206875616</v>
+        <v>0.0212061</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="6" t="n">
-        <v>37895</v>
+      <c r="A254" s="0" t="s">
+        <v>610</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>-0.11420298357957</v>
+        <v>0.0238727</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="6" t="n">
-        <v>37926</v>
+      <c r="A255" s="0" t="s">
+        <v>611</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="6" t="n">
-        <v>37956</v>
+      <c r="A256" s="0" t="s">
+        <v>612</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>-0.10606489319319</v>
+        <v>-0.0365056</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="6" t="n">
-        <v>37987</v>
+      <c r="A257" s="0" t="s">
+        <v>613</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>-0.0951444761700546</v>
+        <v>-0.0396514</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="6" t="n">
-        <v>38018</v>
+      <c r="A258" s="0" t="s">
+        <v>614</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="6" t="n">
-        <v>38047</v>
+      <c r="A259" s="0" t="s">
+        <v>615</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>-0.108862253018995</v>
+        <v>-0.0728977</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="6" t="n">
-        <v>38078</v>
+      <c r="A260" s="0" t="s">
+        <v>616</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>0</v>
+        <v>-0.0048883</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="6" t="n">
-        <v>38108</v>
+      <c r="A261" s="0" t="s">
+        <v>617</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>-0.117924471689503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="6" t="n">
-        <v>38139</v>
+      <c r="A262" s="0" t="s">
+        <v>618</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>-0.0132659761555342</v>
+        <v>-0.0441605</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="6" t="n">
-        <v>38169</v>
+      <c r="A263" s="0" t="s">
+        <v>619</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>0</v>
+        <v>0.0628324</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="6" t="n">
-        <v>38200</v>
+      <c r="A264" s="0" t="s">
+        <v>620</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>0.0801412094352155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="6" t="n">
-        <v>38231</v>
+      <c r="A265" s="0" t="s">
+        <v>621</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>0.152770526983757</v>
+        <v>0.0204016</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="6" t="n">
-        <v>38261</v>
+      <c r="A266" s="0" t="s">
+        <v>622</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>0</v>
+        <v>-0.0157454</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="6" t="n">
-        <v>38292</v>
+      <c r="A267" s="0" t="s">
+        <v>623</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>0.152863087421885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="6" t="n">
-        <v>38322</v>
+      <c r="A268" s="0" t="s">
+        <v>624</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>0.102830733310173</v>
+        <v>-0.0737158</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="6" t="n">
-        <v>38353</v>
+      <c r="A269" s="0" t="s">
+        <v>625</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>0</v>
+        <v>0.0020849</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="6" t="n">
-        <v>38384</v>
+      <c r="A270" s="0" t="s">
+        <v>626</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>0.092499404971226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="6" t="n">
-        <v>38412</v>
+      <c r="A271" s="0" t="s">
+        <v>627</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>0.0526774176671481</v>
+        <v>-0.0322606</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="6" t="n">
-        <v>38443</v>
+      <c r="A272" s="0" t="s">
+        <v>628</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>0</v>
+        <v>0.0107597</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="6" t="n">
-        <v>38473</v>
+      <c r="A273" s="0" t="s">
+        <v>629</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>0.0546339366399761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="6" t="n">
-        <v>38504</v>
+      <c r="A274" s="0" t="s">
+        <v>630</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>0.0801848258956416</v>
+        <v>0.0239237</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="6" t="n">
-        <v>38534</v>
+      <c r="A275" s="0" t="s">
+        <v>631</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="6" t="n">
-        <v>38565</v>
+      <c r="A276" s="0" t="s">
+        <v>632</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>0.0257880270020311</v>
+        <v>-0.0136176</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="6" t="n">
-        <v>38596</v>
+      <c r="A277" s="0" t="s">
+        <v>633</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>0.102929940188981</v>
+        <v>0.0790145</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="6" t="n">
-        <v>38626</v>
+      <c r="A278" s="0" t="s">
+        <v>634</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="6" t="n">
-        <v>38657</v>
+      <c r="A279" s="0" t="s">
+        <v>635</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>0.0733819224917232</v>
+        <v>0.0018943</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="6" t="n">
-        <v>38687</v>
+      <c r="A280" s="0" t="s">
+        <v>636</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>0.0319315417653585</v>
+        <v>-0.0228414</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="6" t="n">
-        <v>38718</v>
+      <c r="A281" s="0" t="s">
+        <v>637</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>0.0638188778637115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="6" t="n">
-        <v>38749</v>
+      <c r="A282" s="0" t="s">
+        <v>638</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>0</v>
+        <v>0.0346105</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="6" t="n">
-        <v>38777</v>
+      <c r="A283" s="0" t="s">
+        <v>639</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>0.053499875818897</v>
+        <v>0.0345123</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="6" t="n">
-        <v>38808</v>
+      <c r="A284" s="0" t="s">
+        <v>640</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>0</v>
+        <v>-0.0285882</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="6" t="n">
-        <v>38838</v>
+      <c r="A285" s="0" t="s">
+        <v>641</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>0.093208465950136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="6" t="n">
-        <v>38869</v>
+      <c r="A286" s="0" t="s">
+        <v>642</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>0.162907445593517</v>
+        <v>0.0319199</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="6" t="n">
-        <v>38899</v>
+      <c r="A287" s="0" t="s">
+        <v>643</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="6" t="n">
-        <v>38930</v>
+      <c r="A288" s="0" t="s">
+        <v>644</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>-0.013876570028632</v>
+        <v>0.0268853</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="6" t="n">
-        <v>38961</v>
+      <c r="A289" s="0" t="s">
+        <v>645</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>-0.0314509185001428</v>
+        <v>-0.0106281</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="6" t="n">
-        <v>38991</v>
+      <c r="A290" s="0" t="s">
+        <v>646</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>-0.0622270339378103</v>
+        <v>0.0426279</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="6" t="n">
-        <v>39022</v>
+      <c r="A291" s="0" t="s">
+        <v>647</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="6" t="n">
-        <v>39052</v>
+      <c r="A292" s="0" t="s">
+        <v>648</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>0.00526711199930105</v>
+        <v>-0.0113942</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="6" t="n">
-        <v>39083</v>
+      <c r="A293" s="0" t="s">
+        <v>649</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>-0.0485980117259909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="6" t="n">
-        <v>39114</v>
+      <c r="A294" s="0" t="s">
+        <v>650</v>
       </c>
       <c r="B294" s="0" t="n">
-        <v>0</v>
+        <v>-0.020859</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="6" t="n">
-        <v>39142</v>
+      <c r="A295" s="0" t="s">
+        <v>651</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>0.0478028947278948</v>
+        <v>0.0128945</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="6" t="n">
-        <v>39173</v>
+      <c r="A296" s="0" t="s">
+        <v>652</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="6" t="n">
-        <v>39203</v>
+      <c r="A297" s="0" t="s">
+        <v>653</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>-0.00216697323081104</v>
+        <v>-0.0144303</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="6" t="n">
-        <v>39234</v>
+      <c r="A298" s="0" t="s">
+        <v>654</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>-0.0760966078575592</v>
+        <v>0.0063245</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="6" t="n">
-        <v>39264</v>
+      <c r="A299" s="0" t="s">
+        <v>655</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="6" t="n">
-        <v>39295</v>
+      <c r="A300" s="0" t="s">
+        <v>656</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>0.0789447997598677</v>
+        <v>0.0214008</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="6" t="n">
-        <v>39326</v>
+      <c r="A301" s="0" t="s">
+        <v>657</v>
       </c>
       <c r="B301" s="0" t="n">
-        <v>-0.291841358580726</v>
+        <v>0.0361468</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="6" t="n">
-        <v>39356</v>
+      <c r="A302" s="0" t="s">
+        <v>658</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>-0.0298245707846966</v>
+        <v>-0.0536275</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="6" t="n">
-        <v>39387</v>
+      <c r="A303" s="0" t="s">
+        <v>659</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="6" t="n">
-        <v>39417</v>
+      <c r="A304" s="0" t="s">
+        <v>660</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>-0.034925842571546</v>
+        <v>-0.022564</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="6" t="n">
-        <v>39448</v>
+      <c r="A305" s="0" t="s">
+        <v>661</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>-0.261667523924864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="6" t="n">
-        <v>39479</v>
+      <c r="A306" s="0" t="s">
+        <v>662</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>0</v>
+        <v>0.0402944</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="6" t="n">
-        <v>39508</v>
+      <c r="A307" s="0" t="s">
+        <v>663</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>-0.255911370649199</v>
+        <v>-0.0505246</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="6" t="n">
-        <v>39539</v>
+      <c r="A308" s="0" t="s">
+        <v>664</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>-0.013683105571242</v>
+        <v>0.0565342</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="6" t="n">
-        <v>39569</v>
+      <c r="A309" s="0" t="s">
+        <v>665</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="6" t="n">
-        <v>39600</v>
+      <c r="A310" s="0" t="s">
+        <v>666</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>0.0873724894345886</v>
+        <v>0.0369908</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="6" t="n">
-        <v>39630</v>
+      <c r="A311" s="0" t="s">
+        <v>667</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>0</v>
+        <v>0.0248154</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="6" t="n">
-        <v>39661</v>
+      <c r="A312" s="0" t="s">
+        <v>668</v>
       </c>
       <c r="B312" s="0" t="n">
-        <v>0.19261931201919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="6" t="n">
-        <v>39692</v>
+      <c r="A313" s="0" t="s">
+        <v>669</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>0.130161359502914</v>
+        <v>-0.0033059</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="6" t="n">
-        <v>39722</v>
+      <c r="A314" s="0" t="s">
+        <v>670</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>0.042761610123737</v>
+        <v>0.0026854</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B315" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="B316" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B317" s="0" t="n">
+        <v>-0.0390402</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B318" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="B319" s="0" t="n">
+        <v>0.002079</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B320" s="0" t="n">
+        <v>-0.0297225</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B321" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B322" s="0" t="n">
+        <v>-0.0130629</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B323" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B324" s="0" t="n">
+        <v>0.0157354</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B325" s="0" t="n">
+        <v>-0.0069671</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B326" s="0" t="n">
+        <v>0.0059244</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="B327" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B328" s="0" t="n">
+        <v>-0.0580577</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B329" s="0" t="n">
+        <v>-0.0152463</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B330" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B331" s="0" t="n">
+        <v>0.0631706</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B332" s="0" t="n">
+        <v>-0.0074329</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B333" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="B334" s="0" t="n">
+        <v>0.0344591</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="B335" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B336" s="0" t="n">
+        <v>-0.0032337</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="B337" s="0" t="n">
+        <v>-0.0153877</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -21067,23 +21765,2559 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B314"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B337"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>30225</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-0.185835714870881</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>30256</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>-0.039496250696552</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>30286</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.189562036505108</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>30317</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>30348</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.0748639897980383</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>30376</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.0669444007024849</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>30407</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>30437</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.0827213822688004</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>30468</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>30498</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.11468762447642</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>30529</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>-0.141329884749569</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>30560</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>30590</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>-0.0221622164146082</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>30621</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>-0.095372682939439</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>30651</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.0318634302358576</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>30682</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>-0.0589846670905007</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>30713</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>30742</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.0273716588133872</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>30773</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>30803</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>-0.0509699869047861</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
+        <v>30834</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>30864</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.265595453342731</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>30895</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>-0.0147164647578816</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="n">
+        <v>30926</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="n">
+        <v>30956</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>-0.217685950901041</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
+        <v>30987</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>-0.518579766575383</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
+        <v>31017</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>-0.290127891439627</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>31048</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
+        <v>31079</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>-0.0559513779245576</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
+        <v>31107</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.0918407953021993</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
+        <v>31138</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
+        <v>31168</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>-0.179204533615814</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
+        <v>31199</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="n">
+        <v>31229</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.110046847614045</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="n">
+        <v>31260</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.0899802646056165</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="n">
+        <v>31291</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="n">
+        <v>31321</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.082921107130155</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="n">
+        <v>31352</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>-0.00325606265057236</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
+        <v>31382</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>-0.0811809097679886</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
+        <v>31413</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="n">
+        <v>31444</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>-0.00601300911374419</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="n">
+        <v>31472</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="n">
+        <v>31503</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.0221649575632253</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="n">
+        <v>31533</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.0691971800750134</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="n">
+        <v>31564</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="n">
+        <v>31594</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>-0.257436520119126</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="n">
+        <v>31625</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>-0.187186048131356</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="n">
+        <v>31656</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.0637402707569</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="n">
+        <v>31686</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
+        <v>31717</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.0846444546344814</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="n">
+        <v>31747</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.0407542915965605</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
+        <v>31778</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="n">
+        <v>31809</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>-0.0339247130550994</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="n">
+        <v>31837</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0.136779074155489</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="n">
+        <v>31868</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="n">
+        <v>31898</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0.132941288213469</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="n">
+        <v>31929</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="n">
+        <v>31959</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>-0.0446128691454598</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="n">
+        <v>31990</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>-0.0470487163437809</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="n">
+        <v>32021</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>-0.111693661419808</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="n">
+        <v>32051</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="n">
+        <v>32082</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>-0.132498935859068</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="n">
+        <v>32112</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>0.0172997780945644</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
+        <v>32143</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
+        <v>32174</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>-0.0933217651536453</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="n">
+        <v>32203</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>0.0892309352810463</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="n">
+        <v>32234</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
+        <v>32264</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>0.0742021291751473</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="n">
+        <v>32295</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>0.155969690130614</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="n">
+        <v>32325</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="n">
+        <v>32356</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>-0.0611477942454699</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="n">
+        <v>32387</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>0.0195179670016894</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="n">
+        <v>32417</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="n">
+        <v>32448</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>-0.020889306157919</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="n">
+        <v>32478</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>0.354972702686147</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="n">
+        <v>32509</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="n">
+        <v>32540</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>0.120179357979217</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="n">
+        <v>32568</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>0.0298104597376752</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="n">
+        <v>32599</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="n">
+        <v>32629</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>0.0340733483848794</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="n">
+        <v>32660</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="n">
+        <v>32690</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>-0.127586668017806</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="n">
+        <v>32721</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>0.0205258661371312</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="n">
+        <v>32752</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="n">
+        <v>32782</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>0.00932585410524548</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="n">
+        <v>32813</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>0.0625311019882992</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="n">
+        <v>32843</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>-0.121449488059005</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="n">
+        <v>32874</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="n">
+        <v>32905</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>0.0598289180194269</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="n">
+        <v>32933</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>0.0252254098109448</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="n">
+        <v>32964</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="n">
+        <v>32994</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>0.00721575670030198</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="n">
+        <v>33025</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="n">
+        <v>33055</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>-0.0486580484281949</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="n">
+        <v>33086</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>0.0966164504521241</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="n">
+        <v>33117</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="n">
+        <v>33147</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>-0.057959208687868</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="n">
+        <v>33178</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>0.0681007664619445</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="n">
+        <v>33208</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>0.0184068752387195</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="n">
+        <v>33239</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="n">
+        <v>33270</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>-0.15942191589472</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="n">
+        <v>33298</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>0.139397160626449</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="n">
+        <v>33329</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="n">
+        <v>33359</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>0.0868418100450984</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="n">
+        <v>33390</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="n">
+        <v>33420</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>0.0468300511260047</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="n">
+        <v>33451</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>0.0549890128894313</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="n">
+        <v>33482</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="n">
+        <v>33512</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>0.0873411386297489</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="n">
+        <v>33543</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>-0.256219078747117</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="n">
+        <v>33573</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>0.0165414527992062</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="n">
+        <v>33604</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="n">
+        <v>33635</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>0.10722353400252</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="n">
+        <v>33664</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>0.00467463536124791</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="n">
+        <v>33695</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="n">
+        <v>33725</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>-0.0011261417378934</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="n">
+        <v>33756</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="n">
+        <v>33786</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>-0.0550754712541896</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="n">
+        <v>33817</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>-0.0697902486621894</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="n">
+        <v>33848</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="n">
+        <v>33878</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>-0.0177645037457449</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="n">
+        <v>33909</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>0.0381330536660132</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="n">
+        <v>33939</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>-0.0710823000380575</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="n">
+        <v>33970</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="n">
+        <v>34001</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>-0.0530293876871202</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="n">
+        <v>34029</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>-0.0108148265930124</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="n">
+        <v>34060</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="n">
+        <v>34090</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>0.128329849003832</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="n">
+        <v>34121</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="n">
+        <v>34151</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>0.00627603698014687</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="n">
+        <v>34182</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>-0.0467225616260708</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="n">
+        <v>34213</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>0.0240124048637317</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="n">
+        <v>34243</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="n">
+        <v>34274</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>-0.0766186938112925</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="n">
+        <v>34304</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>-0.0954793583382654</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="n">
+        <v>34335</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="n">
+        <v>34366</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>0.0911789139909259</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="n">
+        <v>34394</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>0.114899967159584</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="n">
+        <v>34425</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6" t="n">
+        <v>34455</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>0.277082362829696</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="n">
+        <v>34486</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="n">
+        <v>34516</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>-0.0979308705133419</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="6" t="n">
+        <v>34547</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>0.270504382814684</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="n">
+        <v>34578</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>-0.00711860531311048</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6" t="n">
+        <v>34608</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="6" t="n">
+        <v>34639</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>0.415625952953757</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="6" t="n">
+        <v>34669</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>-0.0936295766202917</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="6" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="6" t="n">
+        <v>34731</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>0.264884433406849</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="6" t="n">
+        <v>34759</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>0.00320640851731601</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="6" t="n">
+        <v>34790</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="6" t="n">
+        <v>34820</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>0.034948567513044</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="6" t="n">
+        <v>34851</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="6" t="n">
+        <v>34881</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>-0.0402716787745813</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="6" t="n">
+        <v>34912</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>-0.0523084885222055</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="6" t="n">
+        <v>34943</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>-0.0182856350062532</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="6" t="n">
+        <v>34973</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="6" t="n">
+        <v>35004</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>-0.0111785368667366</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="6" t="n">
+        <v>35034</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>-0.180639098213819</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="6" t="n">
+        <v>35065</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>-0.126835572569262</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="6" t="n">
+        <v>35096</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="6" t="n">
+        <v>35125</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>0.00034203180637696</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="6" t="n">
+        <v>35156</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="6" t="n">
+        <v>35186</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>-0.0502574011611987</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="6" t="n">
+        <v>35217</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="6" t="n">
+        <v>35247</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>-0.0763369304864368</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="6" t="n">
+        <v>35278</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>-0.0296190176615112</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="6" t="n">
+        <v>35309</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>-0.0270695513679444</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="6" t="n">
+        <v>35339</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="6" t="n">
+        <v>35370</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>-0.0369720690704398</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="6" t="n">
+        <v>35400</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>-0.0157375916474102</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="6" t="n">
+        <v>35431</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="6" t="n">
+        <v>35462</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>-0.0790134452982615</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="6" t="n">
+        <v>35490</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>0.100317305302033</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="6" t="n">
+        <v>35521</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="6" t="n">
+        <v>35551</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>-0.0742105210877581</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="6" t="n">
+        <v>35582</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="6" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>-0.0465940729537456</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="6" t="n">
+        <v>35643</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>-0.0487327076117208</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="6" t="n">
+        <v>35674</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>-0.0994995420534119</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="6" t="n">
+        <v>35704</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="6" t="n">
+        <v>35735</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>-0.0482622575339363</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="6" t="n">
+        <v>35765</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>0.0275880006709347</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="6" t="n">
+        <v>35796</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="6" t="n">
+        <v>35827</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>0.0128223277628798</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="6" t="n">
+        <v>35855</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>-0.019120815545547</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="6" t="n">
+        <v>35886</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="6" t="n">
+        <v>35916</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>-0.0415238119717485</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="6" t="n">
+        <v>35947</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="6" t="n">
+        <v>35977</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>0.00602294157040852</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="6" t="n">
+        <v>36008</v>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>0.0123595443958948</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="6" t="n">
+        <v>36039</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>-0.0970693427517162</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="6" t="n">
+        <v>36069</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="6" t="n">
+        <v>36100</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>-0.078272940502953</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="6" t="n">
+        <v>36130</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>-0.0091028050122599</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="6" t="n">
+        <v>36161</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="6" t="n">
+        <v>36192</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>-0.0333795714751769</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="6" t="n">
+        <v>36220</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>-0.0300655024370712</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="6" t="n">
+        <v>36251</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="6" t="n">
+        <v>36281</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>-0.0725181667011046</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="6" t="n">
+        <v>36312</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>0.149630959009209</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="6" t="n">
+        <v>36342</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="6" t="n">
+        <v>36373</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>0.18094278935564</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="6" t="n">
+        <v>36404</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="6" t="n">
+        <v>36434</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>-0.102797303649462</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="6" t="n">
+        <v>36465</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>0.174481540376376</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="6" t="n">
+        <v>36495</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>-0.0646982952539365</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="6" t="n">
+        <v>36526</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="6" t="n">
+        <v>36557</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>0.105879098416447</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="6" t="n">
+        <v>36586</v>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>0.0488259712457342</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="6" t="n">
+        <v>36617</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="6" t="n">
+        <v>36647</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>0.28998220994618</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="6" t="n">
+        <v>36678</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>-0.0883218129842056</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="6" t="n">
+        <v>36708</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="6" t="n">
+        <v>36739</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>-0.0337608278370629</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="6" t="n">
+        <v>36770</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="6" t="n">
+        <v>36800</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>-0.0670515509461163</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="6" t="n">
+        <v>36831</v>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>0.0355941541851678</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="6" t="n">
+        <v>36861</v>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>0.113698134706274</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="6" t="n">
+        <v>36892</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>-0.109603252565945</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="6" t="n">
+        <v>36923</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="6" t="n">
+        <v>36951</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>-0.205488504576246</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="6" t="n">
+        <v>36982</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="6" t="n">
+        <v>37012</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>-0.194291072874983</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="6" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>-0.00258890356678101</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="6" t="n">
+        <v>37073</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="6" t="n">
+        <v>37104</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>0.00722725190596923</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="6" t="n">
+        <v>37135</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="6" t="n">
+        <v>37165</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>-0.00860135615554752</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="6" t="n">
+        <v>37196</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>-0.0739528533129893</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="6" t="n">
+        <v>37226</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>0.00788633157376523</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="6" t="n">
+        <v>37257</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>0.112140549793627</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="6" t="n">
+        <v>37288</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="6" t="n">
+        <v>37316</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>-0.0517866509380857</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="6" t="n">
+        <v>37347</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="6" t="n">
+        <v>37377</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>0.00203102878865201</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="6" t="n">
+        <v>37408</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>-0.0255474232565735</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="6" t="n">
+        <v>37438</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="6" t="n">
+        <v>37469</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>0.0563585107407402</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="6" t="n">
+        <v>37500</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>0.0376932662291295</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="6" t="n">
+        <v>37530</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="6" t="n">
+        <v>37561</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>-0.230951604460519</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="6" t="n">
+        <v>37591</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>0.0657301079970578</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="6" t="n">
+        <v>37622</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>0.0680668040650198</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="6" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="6" t="n">
+        <v>37681</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>0.0629695109268444</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="6" t="n">
+        <v>37712</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="6" t="n">
+        <v>37742</v>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>0.0583311802477237</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="6" t="n">
+        <v>37773</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>-0.153924830756036</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="6" t="n">
+        <v>37803</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="6" t="n">
+        <v>37834</v>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>0.0563677611559543</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="6" t="n">
+        <v>37865</v>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>-0.0567782206875616</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="6" t="n">
+        <v>37895</v>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>-0.11420298357957</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="6" t="n">
+        <v>37926</v>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="6" t="n">
+        <v>37956</v>
+      </c>
+      <c r="B256" s="0" t="n">
+        <v>-0.10606489319319</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="6" t="n">
+        <v>37987</v>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>-0.0951444761700546</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="6" t="n">
+        <v>38018</v>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="6" t="n">
+        <v>38047</v>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>-0.108862253018995</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="6" t="n">
+        <v>38078</v>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="6" t="n">
+        <v>38108</v>
+      </c>
+      <c r="B261" s="0" t="n">
+        <v>-0.117924471689503</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="6" t="n">
+        <v>38139</v>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>-0.0132659761555342</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="6" t="n">
+        <v>38169</v>
+      </c>
+      <c r="B263" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="6" t="n">
+        <v>38200</v>
+      </c>
+      <c r="B264" s="0" t="n">
+        <v>0.0801412094352155</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="6" t="n">
+        <v>38231</v>
+      </c>
+      <c r="B265" s="0" t="n">
+        <v>0.152770526983757</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="6" t="n">
+        <v>38261</v>
+      </c>
+      <c r="B266" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="6" t="n">
+        <v>38292</v>
+      </c>
+      <c r="B267" s="0" t="n">
+        <v>0.152863087421885</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="6" t="n">
+        <v>38322</v>
+      </c>
+      <c r="B268" s="0" t="n">
+        <v>0.102830733310173</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="6" t="n">
+        <v>38353</v>
+      </c>
+      <c r="B269" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="6" t="n">
+        <v>38384</v>
+      </c>
+      <c r="B270" s="0" t="n">
+        <v>0.092499404971226</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="6" t="n">
+        <v>38412</v>
+      </c>
+      <c r="B271" s="0" t="n">
+        <v>0.0526774176671481</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="6" t="n">
+        <v>38443</v>
+      </c>
+      <c r="B272" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="6" t="n">
+        <v>38473</v>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>0.0546339366399761</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="6" t="n">
+        <v>38504</v>
+      </c>
+      <c r="B274" s="0" t="n">
+        <v>0.0801848258956416</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="6" t="n">
+        <v>38534</v>
+      </c>
+      <c r="B275" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="6" t="n">
+        <v>38565</v>
+      </c>
+      <c r="B276" s="0" t="n">
+        <v>0.0257880270020311</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="6" t="n">
+        <v>38596</v>
+      </c>
+      <c r="B277" s="0" t="n">
+        <v>0.102929940188981</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="6" t="n">
+        <v>38626</v>
+      </c>
+      <c r="B278" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="6" t="n">
+        <v>38657</v>
+      </c>
+      <c r="B279" s="0" t="n">
+        <v>0.0733819224917232</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="6" t="n">
+        <v>38687</v>
+      </c>
+      <c r="B280" s="0" t="n">
+        <v>0.0319315417653585</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="6" t="n">
+        <v>38718</v>
+      </c>
+      <c r="B281" s="0" t="n">
+        <v>0.0638188778637115</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="6" t="n">
+        <v>38749</v>
+      </c>
+      <c r="B282" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="6" t="n">
+        <v>38777</v>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>0.053499875818897</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="6" t="n">
+        <v>38808</v>
+      </c>
+      <c r="B284" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="6" t="n">
+        <v>38838</v>
+      </c>
+      <c r="B285" s="0" t="n">
+        <v>0.093208465950136</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="6" t="n">
+        <v>38869</v>
+      </c>
+      <c r="B286" s="0" t="n">
+        <v>0.162907445593517</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="6" t="n">
+        <v>38899</v>
+      </c>
+      <c r="B287" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="6" t="n">
+        <v>38930</v>
+      </c>
+      <c r="B288" s="0" t="n">
+        <v>-0.013876570028632</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="6" t="n">
+        <v>38961</v>
+      </c>
+      <c r="B289" s="0" t="n">
+        <v>-0.0314509185001428</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="6" t="n">
+        <v>38991</v>
+      </c>
+      <c r="B290" s="0" t="n">
+        <v>-0.0622270339378103</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="6" t="n">
+        <v>39022</v>
+      </c>
+      <c r="B291" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="6" t="n">
+        <v>39052</v>
+      </c>
+      <c r="B292" s="0" t="n">
+        <v>0.00526711199930105</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="6" t="n">
+        <v>39083</v>
+      </c>
+      <c r="B293" s="0" t="n">
+        <v>-0.0485980117259909</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="6" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B294" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="6" t="n">
+        <v>39142</v>
+      </c>
+      <c r="B295" s="0" t="n">
+        <v>0.0478028947278948</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="6" t="n">
+        <v>39173</v>
+      </c>
+      <c r="B296" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="6" t="n">
+        <v>39203</v>
+      </c>
+      <c r="B297" s="0" t="n">
+        <v>-0.00216697323081104</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="6" t="n">
+        <v>39234</v>
+      </c>
+      <c r="B298" s="0" t="n">
+        <v>-0.0760966078575592</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="6" t="n">
+        <v>39264</v>
+      </c>
+      <c r="B299" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="6" t="n">
+        <v>39295</v>
+      </c>
+      <c r="B300" s="0" t="n">
+        <v>0.0789447997598677</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="6" t="n">
+        <v>39326</v>
+      </c>
+      <c r="B301" s="0" t="n">
+        <v>-0.291841358580726</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="6" t="n">
+        <v>39356</v>
+      </c>
+      <c r="B302" s="0" t="n">
+        <v>-0.0298245707846966</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="6" t="n">
+        <v>39387</v>
+      </c>
+      <c r="B303" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="6" t="n">
+        <v>39417</v>
+      </c>
+      <c r="B304" s="0" t="n">
+        <v>-0.034925842571546</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="6" t="n">
+        <v>39448</v>
+      </c>
+      <c r="B305" s="0" t="n">
+        <v>-0.261667523924864</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="6" t="n">
+        <v>39479</v>
+      </c>
+      <c r="B306" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="6" t="n">
+        <v>39508</v>
+      </c>
+      <c r="B307" s="0" t="n">
+        <v>-0.255911370649199</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="6" t="n">
+        <v>39539</v>
+      </c>
+      <c r="B308" s="0" t="n">
+        <v>-0.013683105571242</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="6" t="n">
+        <v>39569</v>
+      </c>
+      <c r="B309" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="6" t="n">
+        <v>39600</v>
+      </c>
+      <c r="B310" s="0" t="n">
+        <v>0.0873724894345886</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="6" t="n">
+        <v>39630</v>
+      </c>
+      <c r="B311" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="6" t="n">
+        <v>39661</v>
+      </c>
+      <c r="B312" s="0" t="n">
+        <v>0.19261931201919</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="6" t="n">
+        <v>39692</v>
+      </c>
+      <c r="B313" s="0" t="n">
+        <v>0.130161359502914</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="6" t="n">
+        <v>39722</v>
+      </c>
+      <c r="B314" s="0" t="n">
+        <v>0.042761610123737</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C384"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A384" activeCellId="0" sqref="A384"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A384" activeCellId="1" sqref="A1:B337 A384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>525</v>
+        <v>695</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>526</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25302,7 +28536,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/local_data/shock_list.xlsx
+++ b/local_data/shock_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="BRW21" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="AD22" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="BS22" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="GSS22" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="698">
   <si>
     <t xml:space="preserve">MP SHOCK LIST</t>
   </si>
@@ -2118,6 +2119,9 @@
   </si>
   <si>
     <t xml:space="preserve">MPS_ORTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP1</t>
   </si>
 </sst>
 </file>
@@ -2129,7 +2133,7 @@
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2170,6 +2174,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2215,7 +2226,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2248,6 +2259,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2268,10 +2283,10 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="A1:B337 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.96"/>
@@ -2466,10 +2481,10 @@
   <dimension ref="A1:B469"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="1" sqref="A1:B337 D32"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -6242,10 +6257,10 @@
   <dimension ref="A1:D285"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:B337 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -10228,10 +10243,10 @@
   <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B337"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -15818,10 +15833,10 @@
   <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:B337 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -19047,11 +19062,11 @@
   </sheetPr>
   <dimension ref="A1:B337"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B337"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -21768,10 +21783,10 @@
   <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B337"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -24304,10 +24319,10 @@
   <dimension ref="A1:C384"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A384" activeCellId="1" sqref="A1:B337 A384"/>
+      <selection pane="topLeft" activeCell="A384" activeCellId="0" sqref="A384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
@@ -28531,6 +28546,4893 @@
       </c>
       <c r="C384" s="7" t="n">
         <v>0.0138</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D343"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D2" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D3" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D4" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D5" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D6" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D7" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D8" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D9" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D10" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D11" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D12" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D13" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D14" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D15" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D16" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D17" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D18" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D19" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D20" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D21" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D22" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D23" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D24" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D25" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D26" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D27" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D28" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C29" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D29" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D30" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D31" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D32" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D33" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D34" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B35" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D35" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D36" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D37" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D38" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D39" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D40" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D41" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D42" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C43" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D43" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B44" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D44" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D45" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D46" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D47" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B48" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D48" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B49" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D49" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B50" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D50" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D51" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D52" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D53" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D54" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C55" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D55" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C56" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D56" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D57" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D58" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D59" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B60" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D60" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D61" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B62" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D62" s="8" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B63" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D63" s="8" t="n">
+        <v>0.03214</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B64" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D64" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B65" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D65" s="8" t="n">
+        <v>0.0375</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B66" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D66" s="8" t="n">
+        <v>0.01937</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D67" s="8" t="n">
+        <v>-0.02385</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C68" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D68" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C69" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D69" s="8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C70" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D70" s="8" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C71" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D71" s="8" t="n">
+        <v>-0.07</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C72" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D72" s="8" t="n">
+        <v>-0.02214</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B73" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D73" s="8" t="n">
+        <v>-0.0125</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B74" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D74" s="8" t="n">
+        <v>-0.02583</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B75" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C75" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D75" s="8" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B76" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C76" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D76" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B77" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D77" s="8" t="n">
+        <v>0.03444</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B78" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C78" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D78" s="8" t="n">
+        <v>-0.20667</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B79" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C79" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D79" s="8" t="n">
+        <v>-0.10435</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B80" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C80" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D80" s="8" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B81" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C81" s="8" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D81" s="8" t="n">
+        <v>-0.16909</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" s="8" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D82" s="8" t="n">
+        <v>-0.014</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B83" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C83" s="8" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D83" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C84" s="8" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D84" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B85" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" s="8" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D85" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B86" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C86" s="8" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D86" s="8" t="n">
+        <v>-0.13777</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B87" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C87" s="8" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D87" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B88" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" s="8" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D88" s="8" t="n">
+        <v>0.01107</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B89" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C89" s="8" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D89" s="8" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B90" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C90" s="8" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D90" s="8" t="n">
+        <v>0.01875</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B91" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C91" s="8" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D91" s="8" t="n">
+        <v>-0.09042</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B92" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C92" s="8" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D92" s="8" t="n">
+        <v>-0.21462</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C93" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D93" s="8" t="n">
+        <v>-0.13478</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D94" s="8" t="n">
+        <v>-0.07259</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C95" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D95" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B96" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C96" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D96" s="8" t="n">
+        <v>-0.02695</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C97" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D97" s="8" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B98" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C98" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D98" s="8" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C99" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D99" s="8" t="n">
+        <v>0.01938</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B100" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C100" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D100" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B101" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C101" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D101" s="8" t="n">
+        <v>-0.186</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B102" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C102" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D102" s="8" t="n">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B103" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C103" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D103" s="8" t="n">
+        <v>-0.05294</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B104" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D104" s="8" t="n">
+        <v>-0.01069</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B105" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C105" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D105" s="8" t="n">
+        <v>-0.03001</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B106" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C106" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D106" s="8" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B107" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C107" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D107" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B108" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C108" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D108" s="8" t="n">
+        <v>0.04769</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B109" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C109" s="8" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D109" s="8" t="n">
+        <v>-0.36635</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B110" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C110" s="8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D110" s="8" t="n">
+        <v>0.01261</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B111" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" s="8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D111" s="8" t="n">
+        <v>0.01035</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B112" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C112" s="8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D112" s="8" t="n">
+        <v>-0.21429</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B113" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C113" s="8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D113" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B114" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C114" s="8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D114" s="8" t="n">
+        <v>-0.08552</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B115" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C115" s="8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D115" s="8" t="n">
+        <v>0.02583</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B116" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C116" s="8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D116" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B117" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C117" s="8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D117" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B118" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C118" s="8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D118" s="8" t="n">
+        <v>-0.04999</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B119" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C119" s="8" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D119" s="8" t="n">
+        <v>0.03873</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B120" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C120" s="8" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D120" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C121" s="8" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D121" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B122" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C122" s="8" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D122" s="8" t="n">
+        <v>-0.02583</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B123" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C123" s="8" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D123" s="8" t="n">
+        <v>0.02696</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B124" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C124" s="8" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D124" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B125" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C125" s="8" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D125" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B126" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C126" s="8" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D126" s="8" t="n">
+        <v>0.02308</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B127" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C127" s="8" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D127" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B128" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C128" s="8" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D128" s="8" t="n">
+        <v>0.16333</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B129" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C129" s="8" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D129" s="8" t="n">
+        <v>-1E-005</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B130" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C130" s="8" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D130" s="8" t="n">
+        <v>0.15001</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C131" s="8" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D131" s="8" t="n">
+        <v>0.11072</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B132" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C132" s="8" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D132" s="8" t="n">
+        <v>-0.0496</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B133" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C133" s="8" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D133" s="8" t="n">
+        <v>0.12399</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B134" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C134" s="8" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D134" s="8" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B135" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C135" s="8" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D135" s="8" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B136" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C136" s="8" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D136" s="8" t="n">
+        <v>-0.22546</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B137" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" s="8" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D137" s="8" t="n">
+        <v>0.06223</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B138" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C138" s="8" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D138" s="8" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B139" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C139" s="8" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D139" s="8" t="n">
+        <v>1E-005</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B140" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C140" s="8" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D140" s="8" t="n">
+        <v>-0.1116</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B141" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C141" s="8" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D141" s="8" t="n">
+        <v>0.03443</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B142" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C142" s="8" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D142" s="8" t="n">
+        <v>0.03001</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B143" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C143" s="8" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D143" s="8" t="n">
+        <v>0.03999</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B144" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C144" s="8" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D144" s="8" t="n">
+        <v>-0.09041</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C145" s="8" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D145" s="8" t="n">
+        <v>-0.03001</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B146" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C146" s="8" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D146" s="8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B147" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C147" s="8" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D147" s="8" t="n">
+        <v>-1E-005</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B148" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C148" s="8" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D148" s="8" t="n">
+        <v>-0.07197</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B149" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C149" s="8" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D149" s="8" t="n">
+        <v>-0.02819</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B150" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C150" s="8" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D150" s="8" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B151" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C151" s="8" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D151" s="8" t="n">
+        <v>-0.01765</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B152" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C152" s="8" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D152" s="8" t="n">
+        <v>0.01107</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B153" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C153" s="8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D153" s="8" t="n">
+        <v>-0.03652</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B154" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C154" s="8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D154" s="8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B155" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C155" s="8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D155" s="8" t="n">
+        <v>-0.09865</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B156" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C156" s="8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D156" s="8" t="n">
+        <v>-0.02138</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B157" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C157" s="8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D157" s="8" t="n">
+        <v>-1E-005</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B158" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C158" s="8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D158" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B159" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C159" s="8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D159" s="8" t="n">
+        <v>-0.04166</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B160" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C160" s="8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D160" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B161" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C161" s="8" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D161" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B162" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C162" s="8" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D162" s="8" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B163" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C163" s="8" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D163" s="8" t="n">
+        <v>-0.02584</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B164" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" s="8" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D164" s="8" t="n">
+        <v>-0.00516</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B165" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C165" s="8" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D165" s="8" t="n">
+        <v>0.01193</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B166" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C166" s="8" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D166" s="8" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B167" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C167" s="8" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D167" s="8" t="n">
+        <v>-0.24219</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B168" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C168" s="8" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D168" s="8" t="n">
+        <v>-0.06923</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B169" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C169" s="8" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D169" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B170" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C170" s="8" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D170" s="8" t="n">
+        <v>0.0056</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B171" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C171" s="8" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D171" s="8" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B172" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C172" s="8" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D172" s="8" t="n">
+        <v>-0.01193</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B173" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C173" s="8" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D173" s="8" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B174" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C174" s="8" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D174" s="8" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B175" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C175" s="8" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D175" s="8" t="n">
+        <v>-0.04173</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B176" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C176" s="8" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D176" s="8" t="n">
+        <v>0.07501</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B177" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C177" s="8" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D177" s="8" t="n">
+        <v>0.01551</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B178" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D178" s="8" t="n">
+        <v>-0.05907</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B179" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C179" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D179" s="8" t="n">
+        <v>-0.0465</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B180" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C180" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D180" s="8" t="n">
+        <v>0.04133</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B181" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C181" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D181" s="8" t="n">
+        <v>-0.025</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B182" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C182" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D182" s="8" t="n">
+        <v>-0.01721</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B183" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C183" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D183" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B184" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C184" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D184" s="8" t="n">
+        <v>-0.00999</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B185" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C185" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D185" s="8" t="n">
+        <v>0.06458</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C186" s="8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D186" s="8" t="n">
+        <v>-0.39304</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C187" s="8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D187" s="8" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B188" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C188" s="8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D188" s="8" t="n">
+        <v>0.07046</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B189" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C189" s="8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D189" s="8" t="n">
+        <v>-0.43749</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B190" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C190" s="8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D190" s="8" t="n">
+        <v>-0.09688</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B191" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C191" s="8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D191" s="8" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B192" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C192" s="8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D192" s="8" t="n">
+        <v>0.01549</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B193" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C193" s="8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D193" s="8" t="n">
+        <v>-0.26538</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B194" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C194" s="8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D194" s="8" t="n">
+        <v>-0.03742</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B195" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C195" s="8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D195" s="8" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B196" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C196" s="8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D196" s="8" t="n">
+        <v>-0.00775</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C197" s="8" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D197" s="8" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B198" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C198" s="8" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D198" s="8" t="n">
+        <v>-0.02584</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B199" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C199" s="8" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D199" s="8" t="n">
+        <v>0.00645</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B200" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C200" s="8" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D200" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B201" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C201" s="8" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D201" s="8" t="n">
+        <v>0.04306</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B202" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C202" s="8" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D202" s="8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B203" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C203" s="8" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D203" s="8" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B204" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C204" s="8" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D204" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B205" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C205" s="8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D205" s="8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B206" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C206" s="8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D206" s="8" t="n">
+        <v>0.02383</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B207" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C207" s="8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D207" s="8" t="n">
+        <v>0.0372</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B208" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C208" s="8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D208" s="8" t="n">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B209" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C209" s="8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D209" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B210" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C210" s="8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D210" s="8" t="n">
+        <v>0.01072</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B211" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C211" s="8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D211" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B212" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C212" s="8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D212" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B213" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C213" s="8" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D213" s="8" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B214" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C214" s="8" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D214" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B215" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C215" s="8" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D215" s="8" t="n">
+        <v>-0.01148</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B216" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C216" s="8" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D216" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B217" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C217" s="8" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D217" s="8" t="n">
+        <v>0.00738</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B218" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C218" s="8" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D218" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B219" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C219" s="8" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D219" s="8" t="n">
+        <v>-0.0075</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B220" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C220" s="8" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D220" s="8" t="n">
+        <v>-0.00913</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B221" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C221" s="8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D221" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B222" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C222" s="8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D222" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B223" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C223" s="8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D223" s="8" t="n">
+        <v>-0.00553</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B224" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C224" s="8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D224" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B225" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C225" s="8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D225" s="8" t="n">
+        <v>-0.00705</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B226" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C226" s="8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D226" s="8" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B227" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" s="8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D227" s="8" t="n">
+        <v>-0.00518</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B228" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C228" s="8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D228" s="8" t="n">
+        <v>-0.00861</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B229" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C229" s="8" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D229" s="8" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B230" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C230" s="8" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D230" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B231" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C231" s="8" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D231" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B232" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C232" s="8" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D232" s="8" t="n">
+        <v>-0.015</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B233" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C233" s="8" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D233" s="8" t="n">
+        <v>-0.04718</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B234" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C234" s="8" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D234" s="8" t="n">
+        <v>-0.01499</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B235" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C235" s="8" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D235" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B236" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C236" s="8" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D236" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B237" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C237" s="8" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D237" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B238" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C238" s="8" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D238" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B239" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C239" s="8" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D239" s="8" t="n">
+        <v>-0.00704</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B240" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C240" s="8" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D240" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B241" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C241" s="8" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D241" s="8" t="n">
+        <v>0.00646</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B242" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C242" s="8" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D242" s="8" t="n">
+        <v>0.01477</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B243" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C243" s="8" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D243" s="8" t="n">
+        <v>0.03321</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B244" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C244" s="8" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D244" s="8" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B245" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C245" s="8" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D245" s="8" t="n">
+        <v>-0.02499</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B246" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C246" s="8" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D246" s="8" t="n">
+        <v>0.03101</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B247" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C247" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D247" s="8" t="n">
+        <v>-0.46501</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B248" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C248" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D248" s="8" t="n">
+        <v>-0.115</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B249" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C249" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D249" s="8" t="n">
+        <v>0.08525</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B250" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C250" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D250" s="8" t="n">
+        <v>0.09539</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B251" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C251" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D251" s="8" t="n">
+        <v>-0.065</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B252" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C252" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D252" s="8" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B253" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C253" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D253" s="8" t="n">
+        <v>-0.00298</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B254" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C254" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D254" s="8" t="n">
+        <v>0.10713</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B255" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C255" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D255" s="8" t="n">
+        <v>-0.1213</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B256" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C256" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D256" s="8" t="n">
+        <v>-0.035</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B257" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C257" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D257" s="8" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B258" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D258" s="8" t="n">
+        <v>-0.00982</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B259" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C259" s="8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D259" s="8" t="n">
+        <v>-0.16017</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B260" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C260" s="8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D260" s="8" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B261" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C261" s="8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D261" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B262" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C262" s="8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D262" s="8" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B263" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C263" s="8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D263" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B264" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C264" s="8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D264" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B265" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C265" s="8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D265" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B266" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C266" s="8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D266" s="8" t="n">
+        <v>-0.00577</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B267" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C267" s="8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D267" s="8" t="n">
+        <v>-0.031</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B268" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C268" s="8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D268" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B269" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C269" s="8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D269" s="8" t="n">
+        <v>-0.00517</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B270" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C270" s="8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D270" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B271" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C271" s="8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D271" s="8" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B272" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C272" s="8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D272" s="8" t="n">
+        <v>0.00369</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B273" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C273" s="8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D273" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B274" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C274" s="8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D274" s="8" t="n">
+        <v>0.00833</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B275" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C275" s="8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D275" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B276" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C276" s="8" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D276" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B277" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C277" s="8" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D277" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B278" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C278" s="8" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D278" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B279" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C279" s="8" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D279" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B280" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C280" s="8" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D280" s="8" t="n">
+        <v>-0.00704</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B281" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C281" s="8" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D281" s="8" t="n">
+        <v>0.00834</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B282" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C282" s="8" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D282" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B283" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C283" s="8" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D283" s="8" t="n">
+        <v>0.00431</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B284" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C284" s="8" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D284" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B285" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C285" s="8" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D285" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B286" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C286" s="8" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D286" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B287" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C287" s="8" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D287" s="8" t="n">
+        <v>0.00751</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B288" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C288" s="8" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D288" s="8" t="n">
+        <v>-0.01137</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B289" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C289" s="8" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D289" s="8" t="n">
+        <v>0.00883</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B290" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C290" s="8" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D290" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B291" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C291" s="8" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D291" s="8" t="n">
+        <v>0.00408</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B292" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C292" s="8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D292" s="8" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B293" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C293" s="8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D293" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B294" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" s="8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D294" s="8" t="n">
+        <v>-0.02066</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B295" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C295" s="8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D295" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B296" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C296" s="8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D296" s="8" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B297" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C297" s="8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D297" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B298" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C298" s="8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D298" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B299" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C299" s="8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D299" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B300" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C300" s="8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D300" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B301" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C301" s="8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D301" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B302" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C302" s="8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D302" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B303" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C303" s="8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D303" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B304" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C304" s="8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D304" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B305" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C305" s="8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D305" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B306" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C306" s="8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D306" s="8" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B307" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C307" s="8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D307" s="8" t="n">
+        <v>-0.00554</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B308" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C308" s="8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D308" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B309" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C309" s="8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D309" s="8" t="n">
+        <v>-0.00597</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B310" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C310" s="8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D310" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B311" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C311" s="8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D311" s="8" t="n">
+        <v>-0.00577</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B312" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C312" s="8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D312" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B313" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C313" s="8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D313" s="8" t="n">
+        <v>-0.06347</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B314" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C314" s="8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D314" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B315" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C315" s="8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D315" s="8" t="n">
+        <v>0.02067</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B316" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C316" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D316" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B317" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C317" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D317" s="8" t="n">
+        <v>-0.0155</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B318" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C318" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D318" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B319" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C319" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D319" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B320" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C320" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D320" s="8" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B321" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C321" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D321" s="8" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B322" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C322" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D322" s="8" t="n">
+        <v>-0.00536</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B323" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C323" s="8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D323" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B324" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C324" s="8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D324" s="8" t="n">
+        <v>-0.0026</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B325" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C325" s="8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D325" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B326" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C326" s="8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D326" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B327" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C327" s="8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D327" s="8" t="n">
+        <v>0.01875</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B328" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C328" s="8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D328" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B329" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C329" s="8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D329" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B330" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C330" s="8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D330" s="8" t="n">
+        <v>-0.00259</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B331" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C331" s="8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D331" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B332" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C332" s="8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D332" s="8" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B333" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C333" s="8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D333" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B334" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C334" s="8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D334" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B335" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C335" s="8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D335" s="8" t="n">
+        <v>-0.00442</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B336" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C336" s="8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D336" s="8" t="n">
+        <v>0.00569</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B337" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C337" s="8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D337" s="8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B338" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C338" s="8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D338" s="8" t="n">
+        <v>0.00341</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B339" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C339" s="8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D339" s="8" t="n">
+        <v>0.03228</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B340" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C340" s="8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D340" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B341" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C341" s="8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D341" s="8" t="n">
+        <v>0.01408</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B342" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C342" s="8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D342" s="8" t="n">
+        <v>-0.02842</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B343" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C343" s="8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D343" s="8" t="n">
+        <v>0.04091</v>
       </c>
     </row>
   </sheetData>

--- a/local_data/shock_list.xlsx
+++ b/local_data/shock_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="AD22" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="BS22" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="GSS22" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="GSSTARGET" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="701">
   <si>
     <t xml:space="preserve">MP SHOCK LIST</t>
   </si>
@@ -2126,18 +2127,28 @@
   </si>
   <si>
     <t xml:space="preserve">MP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datedaily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="ddmmmyyyy"/>
+    <numFmt numFmtId="168" formatCode="dmmmyyyy"/>
+    <numFmt numFmtId="169" formatCode="dmmmmyyyy"/>
+    <numFmt numFmtId="170" formatCode="ddmmmmyyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2187,6 +2198,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2230,7 +2248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2267,6 +2285,26 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2286,11 +2324,11 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="A1:B213 E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.96"/>
@@ -2484,11 +2522,11 @@
   </sheetPr>
   <dimension ref="A1:D343"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A1:B213 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
@@ -7351,6 +7389,1734 @@
       </c>
       <c r="D343" s="8" t="n">
         <v>0.04091</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B213"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B213"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
+        <v>34369</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>0.0696208</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="n">
+        <v>34415</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>-0.0314349</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
+        <v>34442</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0.0942402</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
+        <v>34471</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0.0567439</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>34521</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0.0155297</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="n">
+        <v>34562</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0.0941661</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
+        <v>34604</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>-0.0452184</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="n">
+        <v>34653</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0.0911463</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="n">
+        <v>34688</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>-0.1441265</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
+        <v>34731</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>0.0705904</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
+        <v>34786</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0.0483641</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
+        <v>34842</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>0.015352</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
+        <v>34886</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>-0.096697</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="n">
+        <v>34933</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0.0403645</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="n">
+        <v>34968</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>0.0482363</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="n">
+        <v>35018</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>0.0318553</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="n">
+        <v>35052</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>-0.0676993</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="n">
+        <v>35095</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>-0.0072106</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="n">
+        <v>35150</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>0.0090018</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="n">
+        <v>35206</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>0.0221071</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
+        <v>35249</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>-0.0327924</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>0.0027403</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="n">
+        <v>35332</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>-0.1103861</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="n">
+        <v>35382</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>0.0105752</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="n">
+        <v>35416</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>0.0234623</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>-0.0099201</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="n">
+        <v>35514</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>0.0583072</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="n">
+        <v>35570</v>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>-0.087018</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
+        <v>35613</v>
+      </c>
+      <c r="B30" s="9" t="n">
+        <v>0.0085429</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="n">
+        <v>35661</v>
+      </c>
+      <c r="B31" s="9" t="n">
+        <v>0.0204204</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="n">
+        <v>35703</v>
+      </c>
+      <c r="B32" s="9" t="n">
+        <v>0.0150078</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="n">
+        <v>35746</v>
+      </c>
+      <c r="B33" s="9" t="n">
+        <v>-0.0033123</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="n">
+        <v>35780</v>
+      </c>
+      <c r="B34" s="9" t="n">
+        <v>0.0112756</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="n">
+        <v>35830</v>
+      </c>
+      <c r="B35" s="9" t="n">
+        <v>0.0133789</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="n">
+        <v>35885</v>
+      </c>
+      <c r="B36" s="9" t="n">
+        <v>0.0045304</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="n">
+        <v>35934</v>
+      </c>
+      <c r="B37" s="9" t="n">
+        <v>-0.0032044</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="n">
+        <v>35977</v>
+      </c>
+      <c r="B38" s="9" t="n">
+        <v>0.0302271</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="n">
+        <v>36025</v>
+      </c>
+      <c r="B39" s="9" t="n">
+        <v>0.0235965</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="n">
+        <v>36067</v>
+      </c>
+      <c r="B40" s="9" t="n">
+        <v>0.0858769</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="n">
+        <v>36083</v>
+      </c>
+      <c r="B41" s="9" t="n">
+        <v>-0.2425016</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="n">
+        <v>36116</v>
+      </c>
+      <c r="B42" s="9" t="n">
+        <v>0.0102958</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="n">
+        <v>36151</v>
+      </c>
+      <c r="B43" s="9" t="n">
+        <v>0.0224122</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="n">
+        <v>36194</v>
+      </c>
+      <c r="B44" s="9" t="n">
+        <v>0.0208948</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="n">
+        <v>36249</v>
+      </c>
+      <c r="B45" s="9" t="n">
+        <v>0.0083347</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="n">
+        <v>36298</v>
+      </c>
+      <c r="B46" s="9" t="n">
+        <v>0.0033158</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="n">
+        <v>36341</v>
+      </c>
+      <c r="B47" s="9" t="n">
+        <v>-0.0301823</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="n">
+        <v>36396</v>
+      </c>
+      <c r="B48" s="9" t="n">
+        <v>0.0484488</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B49" s="9" t="n">
+        <v>-0.0287495</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="n">
+        <v>36480</v>
+      </c>
+      <c r="B50" s="9" t="n">
+        <v>0.1116737</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="n">
+        <v>36515</v>
+      </c>
+      <c r="B51" s="9" t="n">
+        <v>0.0184591</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="n">
+        <v>36558</v>
+      </c>
+      <c r="B52" s="9" t="n">
+        <v>-0.0231486</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="n">
+        <v>36606</v>
+      </c>
+      <c r="B53" s="9" t="n">
+        <v>0.0217626</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="n">
+        <v>36662</v>
+      </c>
+      <c r="B54" s="9" t="n">
+        <v>0.0670911</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="n">
+        <v>36705</v>
+      </c>
+      <c r="B55" s="9" t="n">
+        <v>-0.0080694</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="n">
+        <v>36760</v>
+      </c>
+      <c r="B56" s="9" t="n">
+        <v>0.0028315</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="n">
+        <v>36802</v>
+      </c>
+      <c r="B57" s="9" t="n">
+        <v>0.0086647</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="n">
+        <v>36845</v>
+      </c>
+      <c r="B58" s="9" t="n">
+        <v>0.0217848</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="n">
+        <v>36879</v>
+      </c>
+      <c r="B59" s="9" t="n">
+        <v>0.0658492</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="n">
+        <v>36894</v>
+      </c>
+      <c r="B60" s="9" t="n">
+        <v>-0.3135501</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11" t="n">
+        <v>36922</v>
+      </c>
+      <c r="B61" s="9" t="n">
+        <v>0.0740406</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="n">
+        <v>36970</v>
+      </c>
+      <c r="B62" s="9" t="n">
+        <v>-0.0372195</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11" t="n">
+        <v>36999</v>
+      </c>
+      <c r="B63" s="9" t="n">
+        <v>-0.4802505</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12" t="n">
+        <v>37026</v>
+      </c>
+      <c r="B64" s="9" t="n">
+        <v>-0.092893</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="n">
+        <v>37069</v>
+      </c>
+      <c r="B65" s="9" t="n">
+        <v>0.1082667</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="n">
+        <v>37124</v>
+      </c>
+      <c r="B66" s="9" t="n">
+        <v>0.0201756</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11" t="n">
+        <v>37151</v>
+      </c>
+      <c r="B67" s="9" t="n">
+        <v>-0.2702657</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10" t="n">
+        <v>37166</v>
+      </c>
+      <c r="B68" s="9" t="n">
+        <v>-0.0250509</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="n">
+        <v>37201</v>
+      </c>
+      <c r="B69" s="9" t="n">
+        <v>-0.1313213</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11" t="n">
+        <v>37236</v>
+      </c>
+      <c r="B70" s="9" t="n">
+        <v>0.0105249</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11" t="n">
+        <v>37286</v>
+      </c>
+      <c r="B71" s="9" t="n">
+        <v>0.0347719</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11" t="n">
+        <v>37334</v>
+      </c>
+      <c r="B72" s="9" t="n">
+        <v>-0.0108245</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13" t="n">
+        <v>37383</v>
+      </c>
+      <c r="B73" s="9" t="n">
+        <v>0.0274999</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="11" t="n">
+        <v>37433</v>
+      </c>
+      <c r="B74" s="9" t="n">
+        <v>0.0178692</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="11" t="n">
+        <v>37481</v>
+      </c>
+      <c r="B75" s="9" t="n">
+        <v>0.0698767</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="11" t="n">
+        <v>37523</v>
+      </c>
+      <c r="B76" s="9" t="n">
+        <v>0.030286</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="n">
+        <v>37566</v>
+      </c>
+      <c r="B77" s="9" t="n">
+        <v>-0.1610076</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="11" t="n">
+        <v>37600</v>
+      </c>
+      <c r="B78" s="9" t="n">
+        <v>0.0132527</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="11" t="n">
+        <v>37650</v>
+      </c>
+      <c r="B79" s="9" t="n">
+        <v>0.0293922</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="11" t="n">
+        <v>37698</v>
+      </c>
+      <c r="B80" s="9" t="n">
+        <v>0.0202391</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="13" t="n">
+        <v>37747</v>
+      </c>
+      <c r="B81" s="9" t="n">
+        <v>0.0402987</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="11" t="n">
+        <v>37797</v>
+      </c>
+      <c r="B82" s="9" t="n">
+        <v>0.133025</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="11" t="n">
+        <v>37845</v>
+      </c>
+      <c r="B83" s="9" t="n">
+        <v>0.0296441</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="11" t="n">
+        <v>37880</v>
+      </c>
+      <c r="B84" s="9" t="n">
+        <v>0.0264197</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="11" t="n">
+        <v>37922</v>
+      </c>
+      <c r="B85" s="9" t="n">
+        <v>0.0304443</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10" t="n">
+        <v>37964</v>
+      </c>
+      <c r="B86" s="9" t="n">
+        <v>-0.0041436</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="11" t="n">
+        <v>38014</v>
+      </c>
+      <c r="B87" s="9" t="n">
+        <v>-0.0139521</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="11" t="n">
+        <v>38062</v>
+      </c>
+      <c r="B88" s="9" t="n">
+        <v>0.0323145</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="13" t="n">
+        <v>38111</v>
+      </c>
+      <c r="B89" s="9" t="n">
+        <v>0.0034751</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="11" t="n">
+        <v>38168</v>
+      </c>
+      <c r="B90" s="9" t="n">
+        <v>-0.0031635</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="11" t="n">
+        <v>38209</v>
+      </c>
+      <c r="B91" s="9" t="n">
+        <v>0.0377198</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="11" t="n">
+        <v>38251</v>
+      </c>
+      <c r="B92" s="9" t="n">
+        <v>0.0184314</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="11" t="n">
+        <v>38301</v>
+      </c>
+      <c r="B93" s="9" t="n">
+        <v>0.0236046</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="11" t="n">
+        <v>38335</v>
+      </c>
+      <c r="B94" s="9" t="n">
+        <v>0.0103376</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="10" t="n">
+        <v>38385</v>
+      </c>
+      <c r="B95" s="9" t="n">
+        <v>0.0087367</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="11" t="n">
+        <v>38433</v>
+      </c>
+      <c r="B96" s="9" t="n">
+        <v>0.0103895</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="13" t="n">
+        <v>38475</v>
+      </c>
+      <c r="B97" s="9" t="n">
+        <v>0.0109082</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="11" t="n">
+        <v>38533</v>
+      </c>
+      <c r="B98" s="9" t="n">
+        <v>0.0172058</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10" t="n">
+        <v>38573</v>
+      </c>
+      <c r="B99" s="9" t="n">
+        <v>0.0231204</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="11" t="n">
+        <v>38615</v>
+      </c>
+      <c r="B100" s="9" t="n">
+        <v>0.0662824</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="10" t="n">
+        <v>38657</v>
+      </c>
+      <c r="B101" s="9" t="n">
+        <v>0.0140217</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="11" t="n">
+        <v>38699</v>
+      </c>
+      <c r="B102" s="9" t="n">
+        <v>0.0131177</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="11" t="n">
+        <v>38748</v>
+      </c>
+      <c r="B103" s="9" t="n">
+        <v>0.0289422</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="11" t="n">
+        <v>38804</v>
+      </c>
+      <c r="B104" s="9" t="n">
+        <v>0.0277809</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="12" t="n">
+        <v>38847</v>
+      </c>
+      <c r="B105" s="9" t="n">
+        <v>0.0277773</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="11" t="n">
+        <v>38897</v>
+      </c>
+      <c r="B106" s="9" t="n">
+        <v>-0.0030901</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="10" t="n">
+        <v>38937</v>
+      </c>
+      <c r="B107" s="9" t="n">
+        <v>-0.0163074</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="11" t="n">
+        <v>38980</v>
+      </c>
+      <c r="B108" s="9" t="n">
+        <v>0.0044793</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="11" t="n">
+        <v>39015</v>
+      </c>
+      <c r="B109" s="9" t="n">
+        <v>0.0178294</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="11" t="n">
+        <v>39063</v>
+      </c>
+      <c r="B110" s="9" t="n">
+        <v>0.0250671</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="11" t="n">
+        <v>39113</v>
+      </c>
+      <c r="B111" s="9" t="n">
+        <v>0.014871</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="11" t="n">
+        <v>39162</v>
+      </c>
+      <c r="B112" s="9" t="n">
+        <v>0.0195312</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="13" t="n">
+        <v>39211</v>
+      </c>
+      <c r="B113" s="9" t="n">
+        <v>0.0071975</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="11" t="n">
+        <v>39261</v>
+      </c>
+      <c r="B114" s="9" t="n">
+        <v>0.0119482</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="10" t="n">
+        <v>39301</v>
+      </c>
+      <c r="B115" s="9" t="n">
+        <v>0.0234936</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="11" t="n">
+        <v>39304</v>
+      </c>
+      <c r="B116" s="9" t="n">
+        <v>0.0404994</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="11" t="n">
+        <v>39311</v>
+      </c>
+      <c r="B117" s="9" t="n">
+        <v>0.0556043</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="11" t="n">
+        <v>39343</v>
+      </c>
+      <c r="B118" s="9" t="n">
+        <v>-0.1879085</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="11" t="n">
+        <v>39386</v>
+      </c>
+      <c r="B119" s="9" t="n">
+        <v>0.0118708</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="11" t="n">
+        <v>39427</v>
+      </c>
+      <c r="B120" s="9" t="n">
+        <v>0.0836556</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="11" t="n">
+        <v>39469</v>
+      </c>
+      <c r="B121" s="9" t="n">
+        <v>-0.4169348</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="11" t="n">
+        <v>39477</v>
+      </c>
+      <c r="B122" s="9" t="n">
+        <v>-0.1047583</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="11" t="n">
+        <v>39518</v>
+      </c>
+      <c r="B123" s="9" t="n">
+        <v>0.0658261</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="11" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B124" s="9" t="n">
+        <v>0.1218839</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="11" t="n">
+        <v>39568</v>
+      </c>
+      <c r="B125" s="9" t="n">
+        <v>-0.0652896</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="11" t="n">
+        <v>39624</v>
+      </c>
+      <c r="B126" s="9" t="n">
+        <v>0.0104487</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="10" t="n">
+        <v>39665</v>
+      </c>
+      <c r="B127" s="9" t="n">
+        <v>0.007827</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="11" t="n">
+        <v>39707</v>
+      </c>
+      <c r="B128" s="9" t="n">
+        <v>0.1556708</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="10" t="n">
+        <v>39729</v>
+      </c>
+      <c r="B129" s="9" t="n">
+        <v>-0.0711639</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="11" t="n">
+        <v>39750</v>
+      </c>
+      <c r="B130" s="9" t="n">
+        <v>-0.0350755</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="11" t="n">
+        <v>39777</v>
+      </c>
+      <c r="B131" s="9" t="n">
+        <v>0.0158909</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="10" t="n">
+        <v>39783</v>
+      </c>
+      <c r="B132" s="9" t="n">
+        <v>-0.0010784</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="11" t="n">
+        <v>39798</v>
+      </c>
+      <c r="B133" s="9" t="n">
+        <v>-0.1569706</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="11" t="n">
+        <v>39841</v>
+      </c>
+      <c r="B134" s="9" t="n">
+        <v>0.0173077</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="11" t="n">
+        <v>39890</v>
+      </c>
+      <c r="B135" s="9" t="n">
+        <v>0.0167477</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="11" t="n">
+        <v>39932</v>
+      </c>
+      <c r="B136" s="9" t="n">
+        <v>0.0165387</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="11" t="n">
+        <v>39988</v>
+      </c>
+      <c r="B137" s="9" t="n">
+        <v>0.0095102</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="11" t="n">
+        <v>40037</v>
+      </c>
+      <c r="B138" s="9" t="n">
+        <v>0.0187073</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="11" t="n">
+        <v>40079</v>
+      </c>
+      <c r="B139" s="9" t="n">
+        <v>0.0193786</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="10" t="n">
+        <v>40121</v>
+      </c>
+      <c r="B140" s="9" t="n">
+        <v>0.0096406</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="11" t="n">
+        <v>40163</v>
+      </c>
+      <c r="B141" s="9" t="n">
+        <v>-0.006905</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="11" t="n">
+        <v>40205</v>
+      </c>
+      <c r="B142" s="9" t="n">
+        <v>0.0054343</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="11" t="n">
+        <v>40253</v>
+      </c>
+      <c r="B143" s="9" t="n">
+        <v>0.0151009</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="11" t="n">
+        <v>40296</v>
+      </c>
+      <c r="B144" s="9" t="n">
+        <v>0.0108066</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="11" t="n">
+        <v>40352</v>
+      </c>
+      <c r="B145" s="9" t="n">
+        <v>0.0185848</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="11" t="n">
+        <v>40400</v>
+      </c>
+      <c r="B146" s="9" t="n">
+        <v>0.0195258</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="11" t="n">
+        <v>40442</v>
+      </c>
+      <c r="B147" s="9" t="n">
+        <v>0.0203986</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="10" t="n">
+        <v>40485</v>
+      </c>
+      <c r="B148" s="9" t="n">
+        <v>0.0274782</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="11" t="n">
+        <v>40526</v>
+      </c>
+      <c r="B149" s="9" t="n">
+        <v>0.0176925</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="11" t="n">
+        <v>40569</v>
+      </c>
+      <c r="B150" s="9" t="n">
+        <v>0.0149333</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="11" t="n">
+        <v>40617</v>
+      </c>
+      <c r="B151" s="9" t="n">
+        <v>0.0122865</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="11" t="n">
+        <v>40660</v>
+      </c>
+      <c r="B152" s="9" t="n">
+        <v>0.0087036</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="11" t="n">
+        <v>40716</v>
+      </c>
+      <c r="B153" s="9" t="n">
+        <v>0.0143313</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="10" t="n">
+        <v>40764</v>
+      </c>
+      <c r="B154" s="9" t="n">
+        <v>0.0393044</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="11" t="n">
+        <v>40807</v>
+      </c>
+      <c r="B155" s="9" t="n">
+        <v>0.0304809</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="10" t="n">
+        <v>40849</v>
+      </c>
+      <c r="B156" s="9" t="n">
+        <v>0.0149087</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="11" t="n">
+        <v>40890</v>
+      </c>
+      <c r="B157" s="9" t="n">
+        <v>0.0183653</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="11" t="n">
+        <v>40933</v>
+      </c>
+      <c r="B158" s="9" t="n">
+        <v>0.01588</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="11" t="n">
+        <v>40981</v>
+      </c>
+      <c r="B159" s="9" t="n">
+        <v>0.0128639</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="11" t="n">
+        <v>41024</v>
+      </c>
+      <c r="B160" s="9" t="n">
+        <v>0.0078165</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="11" t="n">
+        <v>41080</v>
+      </c>
+      <c r="B161" s="9" t="n">
+        <v>0.0224199</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="10" t="n">
+        <v>41122</v>
+      </c>
+      <c r="B162" s="9" t="n">
+        <v>0.0168825</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="11" t="n">
+        <v>41165</v>
+      </c>
+      <c r="B163" s="9" t="n">
+        <v>0.0287422</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="11" t="n">
+        <v>41206</v>
+      </c>
+      <c r="B164" s="9" t="n">
+        <v>0.0106623</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="11" t="n">
+        <v>41255</v>
+      </c>
+      <c r="B165" s="9" t="n">
+        <v>0.0195204</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="11" t="n">
+        <v>41304</v>
+      </c>
+      <c r="B166" s="9" t="n">
+        <v>0.0150923</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="11" t="n">
+        <v>41353</v>
+      </c>
+      <c r="B167" s="9" t="n">
+        <v>0.0170783</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="13" t="n">
+        <v>41395</v>
+      </c>
+      <c r="B168" s="9" t="n">
+        <v>0.0258511</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="11" t="n">
+        <v>41444</v>
+      </c>
+      <c r="B169" s="9" t="n">
+        <v>0.0143937</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="11" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B170" s="9" t="n">
+        <v>0.0156752</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="11" t="n">
+        <v>41535</v>
+      </c>
+      <c r="B171" s="9" t="n">
+        <v>0.0144693</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="11" t="n">
+        <v>41577</v>
+      </c>
+      <c r="B172" s="9" t="n">
+        <v>0.0084036</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="11" t="n">
+        <v>41626</v>
+      </c>
+      <c r="B173" s="9" t="n">
+        <v>0.0174166</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="11" t="n">
+        <v>41668</v>
+      </c>
+      <c r="B174" s="9" t="n">
+        <v>0.024896</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="11" t="n">
+        <v>41717</v>
+      </c>
+      <c r="B175" s="9" t="n">
+        <v>0.0106943</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="11" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B176" s="9" t="n">
+        <v>0.0162251</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="11" t="n">
+        <v>41808</v>
+      </c>
+      <c r="B177" s="9" t="n">
+        <v>0.0137796</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="11" t="n">
+        <v>41850</v>
+      </c>
+      <c r="B178" s="9" t="n">
+        <v>0.018872</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="11" t="n">
+        <v>41899</v>
+      </c>
+      <c r="B179" s="9" t="n">
+        <v>0.0106943</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="11" t="n">
+        <v>41941</v>
+      </c>
+      <c r="B180" s="9" t="n">
+        <v>0.0112009</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="11" t="n">
+        <v>41990</v>
+      </c>
+      <c r="B181" s="9" t="n">
+        <v>0.0254485</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="11" t="n">
+        <v>42032</v>
+      </c>
+      <c r="B182" s="9" t="n">
+        <v>0.0180307</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="11" t="n">
+        <v>42081</v>
+      </c>
+      <c r="B183" s="9" t="n">
+        <v>0.0144329</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="11" t="n">
+        <v>42123</v>
+      </c>
+      <c r="B184" s="9" t="n">
+        <v>0.0185279</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="11" t="n">
+        <v>42172</v>
+      </c>
+      <c r="B185" s="9" t="n">
+        <v>0.0104082</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="11" t="n">
+        <v>42214</v>
+      </c>
+      <c r="B186" s="9" t="n">
+        <v>0.0130962</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="11" t="n">
+        <v>42264</v>
+      </c>
+      <c r="B187" s="9" t="n">
+        <v>-0.0464028</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="11" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B188" s="9" t="n">
+        <v>0.0226055</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="11" t="n">
+        <v>42354</v>
+      </c>
+      <c r="B189" s="9" t="n">
+        <v>0.031422</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="11" t="n">
+        <v>42396</v>
+      </c>
+      <c r="B190" s="9" t="n">
+        <v>0.0036149</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="11" t="n">
+        <v>42445</v>
+      </c>
+      <c r="B191" s="9" t="n">
+        <v>-0.0083405</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="11" t="n">
+        <v>42487</v>
+      </c>
+      <c r="B192" s="9" t="n">
+        <v>0.0154975</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="11" t="n">
+        <v>42536</v>
+      </c>
+      <c r="B193" s="9" t="n">
+        <v>0.0030806</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="11" t="n">
+        <v>42578</v>
+      </c>
+      <c r="B194" s="9" t="n">
+        <v>0.015053</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="11" t="n">
+        <v>42634</v>
+      </c>
+      <c r="B195" s="9" t="n">
+        <v>-0.0257295</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="10" t="n">
+        <v>42676</v>
+      </c>
+      <c r="B196" s="9" t="n">
+        <v>0.014986</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="11" t="n">
+        <v>42718</v>
+      </c>
+      <c r="B197" s="9" t="n">
+        <v>0.0055055</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="10" t="n">
+        <v>42767</v>
+      </c>
+      <c r="B198" s="9" t="n">
+        <v>0.0133067</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="11" t="n">
+        <v>42809</v>
+      </c>
+      <c r="B199" s="9" t="n">
+        <v>0.0229333</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="13" t="n">
+        <v>42858</v>
+      </c>
+      <c r="B200" s="9" t="n">
+        <v>0.0217679</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="11" t="n">
+        <v>42900</v>
+      </c>
+      <c r="B201" s="9" t="n">
+        <v>0.0311419</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="11" t="n">
+        <v>42942</v>
+      </c>
+      <c r="B202" s="9" t="n">
+        <v>0.0122603</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="11" t="n">
+        <v>42998</v>
+      </c>
+      <c r="B203" s="9" t="n">
+        <v>0.0093045</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="10" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B204" s="9" t="n">
+        <v>0.0157815</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="11" t="n">
+        <v>43082</v>
+      </c>
+      <c r="B205" s="9" t="n">
+        <v>0.0209275</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="11" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B206" s="9" t="n">
+        <v>0.0193039</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="11" t="n">
+        <v>43180</v>
+      </c>
+      <c r="B207" s="9" t="n">
+        <v>0.0110609</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="13" t="n">
+        <v>43222</v>
+      </c>
+      <c r="B208" s="9" t="n">
+        <v>0.0171775</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="11" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B209" s="9" t="n">
+        <v>0.0057576</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="10" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B210" s="9" t="n">
+        <v>0.0201937</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="11" t="n">
+        <v>43369</v>
+      </c>
+      <c r="B211" s="9" t="n">
+        <v>0.0294437</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="10" t="n">
+        <v>43412</v>
+      </c>
+      <c r="B212" s="9" t="n">
+        <v>0.0147063</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="11" t="n">
+        <v>43453</v>
+      </c>
+      <c r="B213" s="9" t="n">
+        <v>0.0475341</v>
       </c>
     </row>
   </sheetData>
@@ -7372,10 +9138,10 @@
   <dimension ref="A1:B469"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="1" sqref="A1:B213 D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -11148,10 +12914,10 @@
   <dimension ref="A1:D285"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:B213 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -15134,10 +16900,10 @@
   <dimension ref="A1:C354"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -19052,10 +20818,10 @@
   <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -24642,10 +26408,10 @@
   <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A1:B213 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -27872,10 +29638,10 @@
   <dimension ref="A1:B337"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="A1:B213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -30592,10 +32358,10 @@
   <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -33128,10 +34894,10 @@
   <dimension ref="A1:C384"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A384" activeCellId="0" sqref="A384"/>
+      <selection pane="topLeft" activeCell="A384" activeCellId="1" sqref="A1:B213 A384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
